--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D4CCF5-6830-4506-AD48-563197BAB48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6893A2F-9CD3-4170-9356-C722C0B32667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -448,7 +448,7 @@
         <v>50001</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -459,7 +459,7 @@
         <v>50002</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -470,7 +470,7 @@
         <v>50003</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -481,7 +481,7 @@
         <v>50004</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -492,7 +492,7 @@
         <v>50005</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -503,7 +503,7 @@
         <v>50006</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -514,7 +514,7 @@
         <v>60001</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -525,7 +525,7 @@
         <v>60002</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -536,7 +536,7 @@
         <v>60003</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -547,7 +547,7 @@
         <v>60004</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6893A2F-9CD3-4170-9356-C722C0B32667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20CF8B-28BF-464E-95F8-BC5195341B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2625" windowWidth="24525" windowHeight="12975" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
+    <workbookView xWindow="3150" yWindow="1410" windowWidth="24525" windowHeight="12975" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -47,12 +48,43 @@
     <t>Percent</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ルーレット細胞の設定ファイルです。</t>
+    <rPh sb="5" eb="7">
+      <t>サイボウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーナス（Bonus）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率（千分率）</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センブンリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,21 +100,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -91,8 +175,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -424,7 +517,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -558,4 +651,56 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3BE34A-F8EC-4198-9AB3-CD68FFA5F0D9}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20CF8B-28BF-464E-95F8-BC5195341B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADFEA1D-EA21-401E-9439-A3E17D906CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="1410" windowWidth="24525" windowHeight="12975" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
+    <workbookView xWindow="9630" yWindow="2220" windowWidth="24525" windowHeight="12975" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{358519ED-32C8-4508-8144-29ACB38F27A8}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E7BBA6B5-5187-4F06-B5DF-883CFF29A348}" name="Bonus"/>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE6F7D5-490B-4B37-B783-95A58BBE7927}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -538,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50001</v>
+        <v>50003</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -549,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>50002</v>
+        <v>50006</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>50003</v>
+        <v>50009</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -571,10 +571,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>50004</v>
+        <v>50012</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -582,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>50005</v>
+        <v>50015</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -593,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>50006</v>
+        <v>60001</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -604,10 +604,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>60001</v>
+        <v>60002</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -615,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>60002</v>
+        <v>60003</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -626,10 +626,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>60003</v>
+        <v>60004</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -637,10 +637,65 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>60004</v>
+        <v>60005</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>60006</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>60007</v>
+      </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>60008</v>
+      </c>
+      <c r="C14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>60009</v>
+      </c>
+      <c r="C15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>60010</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADFEA1D-EA21-401E-9439-A3E17D906CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1C668-7E93-4D20-9FE6-CF3E875BB2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="2220" windowWidth="24525" windowHeight="12975" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
+    <workbookView xWindow="3180" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1C668-7E93-4D20-9FE6-CF3E875BB2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D498F3-8131-41C9-A1F4-864ECA197CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2340" windowWidth="24525" windowHeight="12975" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
+    <workbookView xWindow="-25290" yWindow="1920" windowWidth="18495" windowHeight="10515" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -206,8 +197,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C40" totalsRowShown="0">
+  <autoFilter ref="A1:C40" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{358519ED-32C8-4508-8144-29ACB38F27A8}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E7BBA6B5-5187-4F06-B5DF-883CFF29A348}" name="Bonus"/>
@@ -514,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE6F7D5-490B-4B37-B783-95A58BBE7927}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -544,7 +535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -555,7 +546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -566,7 +557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -577,7 +568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -588,7 +579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -599,7 +590,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -610,7 +601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -621,7 +612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -632,7 +623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -643,7 +634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -654,7 +645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -665,7 +656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -676,7 +667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -687,7 +678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -696,6 +687,270 @@
       </c>
       <c r="C16">
         <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1001</v>
+      </c>
+      <c r="B17">
+        <v>80003</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1002</v>
+      </c>
+      <c r="B18">
+        <v>80006</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1003</v>
+      </c>
+      <c r="B19">
+        <v>80009</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1004</v>
+      </c>
+      <c r="B20">
+        <v>80012</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1005</v>
+      </c>
+      <c r="B21">
+        <v>80015</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1006</v>
+      </c>
+      <c r="B22">
+        <v>80016</v>
+      </c>
+      <c r="C22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1007</v>
+      </c>
+      <c r="B23">
+        <v>80017</v>
+      </c>
+      <c r="C23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1008</v>
+      </c>
+      <c r="B24">
+        <v>80018</v>
+      </c>
+      <c r="C24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1009</v>
+      </c>
+      <c r="B25">
+        <v>80019</v>
+      </c>
+      <c r="C25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1010</v>
+      </c>
+      <c r="B26">
+        <v>80020</v>
+      </c>
+      <c r="C26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>1011</v>
+      </c>
+      <c r="B27">
+        <v>80021</v>
+      </c>
+      <c r="C27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1012</v>
+      </c>
+      <c r="B28">
+        <v>80022</v>
+      </c>
+      <c r="C28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1013</v>
+      </c>
+      <c r="B29">
+        <v>80023</v>
+      </c>
+      <c r="C29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1014</v>
+      </c>
+      <c r="B30">
+        <v>80024</v>
+      </c>
+      <c r="C30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1015</v>
+      </c>
+      <c r="B31">
+        <v>80025</v>
+      </c>
+      <c r="C31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2001</v>
+      </c>
+      <c r="B32">
+        <v>81003</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2002</v>
+      </c>
+      <c r="B33">
+        <v>81006</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2003</v>
+      </c>
+      <c r="B34">
+        <v>81009</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2004</v>
+      </c>
+      <c r="B35">
+        <v>81010</v>
+      </c>
+      <c r="C35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2005</v>
+      </c>
+      <c r="B36">
+        <v>81011</v>
+      </c>
+      <c r="C36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2006</v>
+      </c>
+      <c r="B37">
+        <v>81012</v>
+      </c>
+      <c r="C37">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2007</v>
+      </c>
+      <c r="B38">
+        <v>81013</v>
+      </c>
+      <c r="C38">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2008</v>
+      </c>
+      <c r="B39">
+        <v>81014</v>
+      </c>
+      <c r="C39">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2009</v>
+      </c>
+      <c r="B40">
+        <v>81015</v>
+      </c>
+      <c r="C40">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -716,39 +971,39 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>

--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D498F3-8131-41C9-A1F4-864ECA197CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB81171-9982-45A5-B464-0741439370BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="1920" windowWidth="18495" windowHeight="10515" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +119,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,6 +190,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -197,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C40" totalsRowShown="0">
-  <autoFilter ref="A1:C40" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C135" totalsRowShown="0">
+  <autoFilter ref="A1:C135" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{358519ED-32C8-4508-8144-29ACB38F27A8}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E7BBA6B5-5187-4F06-B5DF-883CFF29A348}" name="Bonus"/>
@@ -505,15 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE6F7D5-490B-4B37-B783-95A58BBE7927}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,7 +551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -546,7 +562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -557,7 +573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -568,7 +584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -579,7 +595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -590,7 +606,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -601,7 +617,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -612,7 +628,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -623,7 +639,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -634,7 +650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -645,7 +661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -656,7 +672,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -667,7 +683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -678,7 +694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -689,7 +705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1001</v>
       </c>
@@ -700,7 +716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1002</v>
       </c>
@@ -711,7 +727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1003</v>
       </c>
@@ -722,7 +738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1004</v>
       </c>
@@ -733,7 +749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1005</v>
       </c>
@@ -744,7 +760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1006</v>
       </c>
@@ -755,7 +771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1007</v>
       </c>
@@ -766,7 +782,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1008</v>
       </c>
@@ -777,7 +793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1009</v>
       </c>
@@ -788,7 +804,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1010</v>
       </c>
@@ -799,7 +815,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>1011</v>
       </c>
@@ -810,7 +826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1012</v>
       </c>
@@ -821,7 +837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1013</v>
       </c>
@@ -832,7 +848,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1014</v>
       </c>
@@ -843,7 +859,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1015</v>
       </c>
@@ -854,7 +870,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2001</v>
       </c>
@@ -865,7 +881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2002</v>
       </c>
@@ -876,7 +892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2003</v>
       </c>
@@ -887,7 +903,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2004</v>
       </c>
@@ -898,7 +914,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2005</v>
       </c>
@@ -909,7 +925,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2006</v>
       </c>
@@ -920,7 +936,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2007</v>
       </c>
@@ -931,7 +947,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2008</v>
       </c>
@@ -942,7 +958,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2009</v>
       </c>
@@ -951,6 +967,1051 @@
       </c>
       <c r="C40">
         <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <v>3001</v>
+      </c>
+      <c r="B41">
+        <v>83001</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B42">
+        <v>83003</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <v>3003</v>
+      </c>
+      <c r="B43">
+        <v>83002</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <v>3004</v>
+      </c>
+      <c r="B44">
+        <v>83004</v>
+      </c>
+      <c r="C44">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <v>3005</v>
+      </c>
+      <c r="B45">
+        <v>83007</v>
+      </c>
+      <c r="C45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <v>3006</v>
+      </c>
+      <c r="B46">
+        <v>83006</v>
+      </c>
+      <c r="C46">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <v>3007</v>
+      </c>
+      <c r="B47">
+        <v>83009</v>
+      </c>
+      <c r="C47">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <v>3008</v>
+      </c>
+      <c r="B48">
+        <v>83005</v>
+      </c>
+      <c r="C48">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <v>3009</v>
+      </c>
+      <c r="B49">
+        <v>83008</v>
+      </c>
+      <c r="C49">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <v>3101</v>
+      </c>
+      <c r="B50">
+        <v>83001</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <v>3102</v>
+      </c>
+      <c r="B51">
+        <v>83003</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <v>3103</v>
+      </c>
+      <c r="B52">
+        <v>83002</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <v>3104</v>
+      </c>
+      <c r="B53">
+        <v>83004</v>
+      </c>
+      <c r="C53">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <v>3105</v>
+      </c>
+      <c r="B54">
+        <v>83007</v>
+      </c>
+      <c r="C54">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <v>3106</v>
+      </c>
+      <c r="B55">
+        <v>83006</v>
+      </c>
+      <c r="C55">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <v>3107</v>
+      </c>
+      <c r="B56">
+        <v>83009</v>
+      </c>
+      <c r="C56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
+        <v>3108</v>
+      </c>
+      <c r="B57">
+        <v>83005</v>
+      </c>
+      <c r="C57">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <v>3109</v>
+      </c>
+      <c r="B58">
+        <v>83008</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <v>3201</v>
+      </c>
+      <c r="B59">
+        <v>83001</v>
+      </c>
+      <c r="C59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
+        <v>3202</v>
+      </c>
+      <c r="B60">
+        <v>83003</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
+        <v>3203</v>
+      </c>
+      <c r="B61">
+        <v>83002</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <v>3204</v>
+      </c>
+      <c r="B62">
+        <v>83004</v>
+      </c>
+      <c r="C62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
+        <v>3205</v>
+      </c>
+      <c r="B63">
+        <v>83007</v>
+      </c>
+      <c r="C63">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="4">
+        <v>3206</v>
+      </c>
+      <c r="B64">
+        <v>83006</v>
+      </c>
+      <c r="C64">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="4">
+        <v>3207</v>
+      </c>
+      <c r="B65">
+        <v>83009</v>
+      </c>
+      <c r="C65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="4">
+        <v>3208</v>
+      </c>
+      <c r="B66">
+        <v>83005</v>
+      </c>
+      <c r="C66">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="4">
+        <v>3209</v>
+      </c>
+      <c r="B67">
+        <v>83008</v>
+      </c>
+      <c r="C67">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="4">
+        <v>3301</v>
+      </c>
+      <c r="B68">
+        <v>83001</v>
+      </c>
+      <c r="C68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="4">
+        <v>3302</v>
+      </c>
+      <c r="B69">
+        <v>83003</v>
+      </c>
+      <c r="C69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="4">
+        <v>3303</v>
+      </c>
+      <c r="B70">
+        <v>83002</v>
+      </c>
+      <c r="C70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="4">
+        <v>3304</v>
+      </c>
+      <c r="B71">
+        <v>83004</v>
+      </c>
+      <c r="C71">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="4">
+        <v>3305</v>
+      </c>
+      <c r="B72">
+        <v>83007</v>
+      </c>
+      <c r="C72">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="4">
+        <v>3306</v>
+      </c>
+      <c r="B73">
+        <v>83006</v>
+      </c>
+      <c r="C73">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="4">
+        <v>3307</v>
+      </c>
+      <c r="B74">
+        <v>83009</v>
+      </c>
+      <c r="C74">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="4">
+        <v>3308</v>
+      </c>
+      <c r="B75">
+        <v>83005</v>
+      </c>
+      <c r="C75">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="4">
+        <v>3309</v>
+      </c>
+      <c r="B76">
+        <v>83008</v>
+      </c>
+      <c r="C76">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="4">
+        <v>3401</v>
+      </c>
+      <c r="B77">
+        <v>83001</v>
+      </c>
+      <c r="C77">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="4">
+        <v>3402</v>
+      </c>
+      <c r="B78">
+        <v>83003</v>
+      </c>
+      <c r="C78">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="4">
+        <v>3403</v>
+      </c>
+      <c r="B79">
+        <v>83002</v>
+      </c>
+      <c r="C79">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="4">
+        <v>3404</v>
+      </c>
+      <c r="B80">
+        <v>83004</v>
+      </c>
+      <c r="C80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="4">
+        <v>3405</v>
+      </c>
+      <c r="B81">
+        <v>83007</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="4">
+        <v>3406</v>
+      </c>
+      <c r="B82">
+        <v>83006</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="4">
+        <v>3407</v>
+      </c>
+      <c r="B83">
+        <v>83009</v>
+      </c>
+      <c r="C83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="4">
+        <v>3408</v>
+      </c>
+      <c r="B84">
+        <v>83005</v>
+      </c>
+      <c r="C84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="4">
+        <v>3409</v>
+      </c>
+      <c r="B85">
+        <v>83008</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
+        <v>3501</v>
+      </c>
+      <c r="B86">
+        <v>83001</v>
+      </c>
+      <c r="C86">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="4">
+        <v>3502</v>
+      </c>
+      <c r="B87">
+        <v>83003</v>
+      </c>
+      <c r="C87">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
+        <v>3503</v>
+      </c>
+      <c r="B88">
+        <v>83002</v>
+      </c>
+      <c r="C88">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
+        <v>3504</v>
+      </c>
+      <c r="B89">
+        <v>83004</v>
+      </c>
+      <c r="C89">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="4">
+        <v>3505</v>
+      </c>
+      <c r="B90">
+        <v>83007</v>
+      </c>
+      <c r="C90">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="4">
+        <v>3506</v>
+      </c>
+      <c r="B91">
+        <v>83006</v>
+      </c>
+      <c r="C91">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
+        <v>3507</v>
+      </c>
+      <c r="B92">
+        <v>83009</v>
+      </c>
+      <c r="C92">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="4">
+        <v>3508</v>
+      </c>
+      <c r="B93">
+        <v>83005</v>
+      </c>
+      <c r="C93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="4">
+        <v>3509</v>
+      </c>
+      <c r="B94">
+        <v>83008</v>
+      </c>
+      <c r="C94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="4">
+        <v>3601</v>
+      </c>
+      <c r="B95">
+        <v>83001</v>
+      </c>
+      <c r="C95">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="4">
+        <v>3602</v>
+      </c>
+      <c r="B96">
+        <v>83003</v>
+      </c>
+      <c r="C96">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="4">
+        <v>3603</v>
+      </c>
+      <c r="B97">
+        <v>83002</v>
+      </c>
+      <c r="C97">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="4">
+        <v>3701</v>
+      </c>
+      <c r="B98">
+        <v>83001</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="4">
+        <v>3702</v>
+      </c>
+      <c r="B99">
+        <v>83003</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="4">
+        <v>3703</v>
+      </c>
+      <c r="B100">
+        <v>83002</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="4">
+        <v>3704</v>
+      </c>
+      <c r="B101">
+        <v>83301</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="4">
+        <v>3705</v>
+      </c>
+      <c r="B102">
+        <v>83302</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="4">
+        <v>3706</v>
+      </c>
+      <c r="B103">
+        <v>83303</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="4">
+        <v>3707</v>
+      </c>
+      <c r="B104">
+        <v>83304</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="4">
+        <v>3708</v>
+      </c>
+      <c r="B105">
+        <v>83305</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="4">
+        <v>3709</v>
+      </c>
+      <c r="B106">
+        <v>81003</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="4">
+        <v>3710</v>
+      </c>
+      <c r="B107">
+        <v>81006</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="4">
+        <v>3711</v>
+      </c>
+      <c r="B108">
+        <v>81009</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="4">
+        <v>3712</v>
+      </c>
+      <c r="B109">
+        <v>80003</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="4">
+        <v>3713</v>
+      </c>
+      <c r="B110">
+        <v>80006</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="4">
+        <v>3714</v>
+      </c>
+      <c r="B111">
+        <v>80009</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="4">
+        <v>3715</v>
+      </c>
+      <c r="B112">
+        <v>80012</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="4">
+        <v>3716</v>
+      </c>
+      <c r="B113">
+        <v>80015</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="4">
+        <v>3717</v>
+      </c>
+      <c r="B114">
+        <v>83004</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="4">
+        <v>3718</v>
+      </c>
+      <c r="B115">
+        <v>83006</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="4">
+        <v>3719</v>
+      </c>
+      <c r="B116">
+        <v>83008</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="4">
+        <v>3720</v>
+      </c>
+      <c r="B117">
+        <v>83005</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="4">
+        <v>3721</v>
+      </c>
+      <c r="B118">
+        <v>83007</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="4">
+        <v>3722</v>
+      </c>
+      <c r="B119">
+        <v>83009</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="4">
+        <v>3723</v>
+      </c>
+      <c r="B120">
+        <v>81010</v>
+      </c>
+      <c r="C120">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="4">
+        <v>3724</v>
+      </c>
+      <c r="B121">
+        <v>81011</v>
+      </c>
+      <c r="C121">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="4">
+        <v>3725</v>
+      </c>
+      <c r="B122">
+        <v>81012</v>
+      </c>
+      <c r="C122">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="4">
+        <v>3726</v>
+      </c>
+      <c r="B123">
+        <v>81013</v>
+      </c>
+      <c r="C123">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="4">
+        <v>3727</v>
+      </c>
+      <c r="B124">
+        <v>81014</v>
+      </c>
+      <c r="C124">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="4">
+        <v>3728</v>
+      </c>
+      <c r="B125">
+        <v>81015</v>
+      </c>
+      <c r="C125">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="4">
+        <v>3729</v>
+      </c>
+      <c r="B126">
+        <v>83306</v>
+      </c>
+      <c r="C126">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="4">
+        <v>3730</v>
+      </c>
+      <c r="B127">
+        <v>83307</v>
+      </c>
+      <c r="C127">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="4">
+        <v>3731</v>
+      </c>
+      <c r="B128">
+        <v>83308</v>
+      </c>
+      <c r="C128">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="4">
+        <v>3732</v>
+      </c>
+      <c r="B129">
+        <v>83309</v>
+      </c>
+      <c r="C129">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="4">
+        <v>3733</v>
+      </c>
+      <c r="B130">
+        <v>83310</v>
+      </c>
+      <c r="C130">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="4">
+        <v>3734</v>
+      </c>
+      <c r="B131">
+        <v>83311</v>
+      </c>
+      <c r="C131">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="4">
+        <v>3735</v>
+      </c>
+      <c r="B132">
+        <v>83312</v>
+      </c>
+      <c r="C132">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="4">
+        <v>3736</v>
+      </c>
+      <c r="B133">
+        <v>83313</v>
+      </c>
+      <c r="C133">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="4">
+        <v>3737</v>
+      </c>
+      <c r="B134">
+        <v>83314</v>
+      </c>
+      <c r="C134">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="4">
+        <v>3738</v>
+      </c>
+      <c r="B135">
+        <v>83315</v>
+      </c>
+      <c r="C135">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -971,39 +2032,39 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>

--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB81171-9982-45A5-B464-0741439370BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A15CE-5EE5-4DF3-9821-3AC5055D660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C135" totalsRowShown="0">
-  <autoFilter ref="A1:C135" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C246" totalsRowShown="0">
+  <autoFilter ref="A1:C246" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{358519ED-32C8-4508-8144-29ACB38F27A8}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E7BBA6B5-5187-4F06-B5DF-883CFF29A348}" name="Bonus"/>
@@ -521,11 +521,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE6F7D5-490B-4B37-B783-95A58BBE7927}">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -974,10 +972,10 @@
         <v>3001</v>
       </c>
       <c r="B41">
-        <v>83001</v>
+        <v>83010</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -985,10 +983,10 @@
         <v>3002</v>
       </c>
       <c r="B42">
-        <v>83003</v>
+        <v>83012</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -996,10 +994,10 @@
         <v>3003</v>
       </c>
       <c r="B43">
-        <v>83002</v>
+        <v>83011</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -1007,10 +1005,10 @@
         <v>3004</v>
       </c>
       <c r="B44">
-        <v>83004</v>
+        <v>83013</v>
       </c>
       <c r="C44">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -1018,10 +1016,10 @@
         <v>3005</v>
       </c>
       <c r="B45">
-        <v>83007</v>
+        <v>83015</v>
       </c>
       <c r="C45">
-        <v>150</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -1029,10 +1027,10 @@
         <v>3006</v>
       </c>
       <c r="B46">
-        <v>83006</v>
+        <v>83014</v>
       </c>
       <c r="C46">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -1040,10 +1038,10 @@
         <v>3007</v>
       </c>
       <c r="B47">
-        <v>83009</v>
+        <v>83001</v>
       </c>
       <c r="C47">
-        <v>160</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -1051,10 +1049,10 @@
         <v>3008</v>
       </c>
       <c r="B48">
-        <v>83005</v>
+        <v>83003</v>
       </c>
       <c r="C48">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -1062,128 +1060,128 @@
         <v>3009</v>
       </c>
       <c r="B49">
-        <v>83008</v>
+        <v>83002</v>
       </c>
       <c r="C49">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
-        <v>3101</v>
+        <v>3010</v>
       </c>
       <c r="B50">
-        <v>83001</v>
+        <v>83016</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
-        <v>3102</v>
+        <v>3011</v>
       </c>
       <c r="B51">
-        <v>83003</v>
+        <v>83019</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
-        <v>3103</v>
+        <v>3012</v>
       </c>
       <c r="B52">
-        <v>83002</v>
+        <v>83004</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
-        <v>3104</v>
+        <v>3013</v>
       </c>
       <c r="B53">
-        <v>83004</v>
+        <v>83007</v>
       </c>
       <c r="C53">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
-        <v>3105</v>
+        <v>3014</v>
       </c>
       <c r="B54">
-        <v>83007</v>
+        <v>83017</v>
       </c>
       <c r="C54">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
-        <v>3106</v>
+        <v>3015</v>
       </c>
       <c r="B55">
-        <v>83006</v>
+        <v>83020</v>
       </c>
       <c r="C55">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
-        <v>3107</v>
+        <v>3016</v>
       </c>
       <c r="B56">
-        <v>83009</v>
+        <v>83005</v>
       </c>
       <c r="C56">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
-        <v>3108</v>
+        <v>3017</v>
       </c>
       <c r="B57">
-        <v>83005</v>
+        <v>83008</v>
       </c>
       <c r="C57">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
-        <v>3109</v>
+        <v>3018</v>
       </c>
       <c r="B58">
-        <v>83008</v>
+        <v>83018</v>
       </c>
       <c r="C58">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
-        <v>3201</v>
+        <v>3019</v>
       </c>
       <c r="B59">
-        <v>83001</v>
+        <v>83021</v>
       </c>
       <c r="C59">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
-        <v>3202</v>
+        <v>3020</v>
       </c>
       <c r="B60">
-        <v>83003</v>
+        <v>83009</v>
       </c>
       <c r="C60">
         <v>60</v>
@@ -1191,10 +1189,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
-        <v>3203</v>
+        <v>3021</v>
       </c>
       <c r="B61">
-        <v>83002</v>
+        <v>83006</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -1202,208 +1200,208 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
-        <v>3204</v>
+        <v>3101</v>
       </c>
       <c r="B62">
-        <v>83004</v>
+        <v>83010</v>
       </c>
       <c r="C62">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
-        <v>3205</v>
+        <v>3102</v>
       </c>
       <c r="B63">
-        <v>83007</v>
+        <v>83012</v>
       </c>
       <c r="C63">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
-        <v>3206</v>
+        <v>3103</v>
       </c>
       <c r="B64">
-        <v>83006</v>
+        <v>83011</v>
       </c>
       <c r="C64">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
-        <v>3207</v>
+        <v>3104</v>
       </c>
       <c r="B65">
-        <v>83009</v>
+        <v>83013</v>
       </c>
       <c r="C65">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
-        <v>3208</v>
+        <v>3105</v>
       </c>
       <c r="B66">
-        <v>83005</v>
+        <v>83015</v>
       </c>
       <c r="C66">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
-        <v>3209</v>
+        <v>3106</v>
       </c>
       <c r="B67">
-        <v>83008</v>
+        <v>83014</v>
       </c>
       <c r="C67">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
-        <v>3301</v>
+        <v>3107</v>
       </c>
       <c r="B68">
         <v>83001</v>
       </c>
       <c r="C68">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
-        <v>3302</v>
+        <v>3108</v>
       </c>
       <c r="B69">
         <v>83003</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
-        <v>3303</v>
+        <v>3109</v>
       </c>
       <c r="B70">
         <v>83002</v>
       </c>
       <c r="C70">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
-        <v>3304</v>
+        <v>3110</v>
       </c>
       <c r="B71">
-        <v>83004</v>
+        <v>83016</v>
       </c>
       <c r="C71">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
-        <v>3305</v>
+        <v>3111</v>
       </c>
       <c r="B72">
-        <v>83007</v>
+        <v>83019</v>
       </c>
       <c r="C72">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
-        <v>3306</v>
+        <v>3112</v>
       </c>
       <c r="B73">
-        <v>83006</v>
+        <v>83004</v>
       </c>
       <c r="C73">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
-        <v>3307</v>
+        <v>3113</v>
       </c>
       <c r="B74">
-        <v>83009</v>
+        <v>83007</v>
       </c>
       <c r="C74">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
-        <v>3308</v>
+        <v>3114</v>
       </c>
       <c r="B75">
-        <v>83005</v>
+        <v>83017</v>
       </c>
       <c r="C75">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
-        <v>3309</v>
+        <v>3115</v>
       </c>
       <c r="B76">
-        <v>83008</v>
+        <v>83020</v>
       </c>
       <c r="C76">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
-        <v>3401</v>
+        <v>3116</v>
       </c>
       <c r="B77">
-        <v>83001</v>
+        <v>83005</v>
       </c>
       <c r="C77">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
-        <v>3402</v>
+        <v>3117</v>
       </c>
       <c r="B78">
-        <v>83003</v>
+        <v>83008</v>
       </c>
       <c r="C78">
-        <v>130</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
-        <v>3403</v>
+        <v>3118</v>
       </c>
       <c r="B79">
-        <v>83002</v>
+        <v>83018</v>
       </c>
       <c r="C79">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
-        <v>3404</v>
+        <v>3119</v>
       </c>
       <c r="B80">
-        <v>83004</v>
+        <v>83021</v>
       </c>
       <c r="C80">
         <v>100</v>
@@ -1411,142 +1409,142 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
-        <v>3405</v>
+        <v>3120</v>
       </c>
       <c r="B81">
-        <v>83007</v>
+        <v>83009</v>
       </c>
       <c r="C81">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
-        <v>3406</v>
+        <v>3121</v>
       </c>
       <c r="B82">
         <v>83006</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
-        <v>3407</v>
+        <v>3201</v>
       </c>
       <c r="B83">
-        <v>83009</v>
+        <v>83010</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
-        <v>3408</v>
+        <v>3202</v>
       </c>
       <c r="B84">
-        <v>83005</v>
+        <v>83012</v>
       </c>
       <c r="C84">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
-        <v>3409</v>
+        <v>3203</v>
       </c>
       <c r="B85">
-        <v>83008</v>
+        <v>83011</v>
       </c>
       <c r="C85">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
-        <v>3501</v>
+        <v>3204</v>
       </c>
       <c r="B86">
-        <v>83001</v>
+        <v>83013</v>
       </c>
       <c r="C86">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
-        <v>3502</v>
+        <v>3205</v>
       </c>
       <c r="B87">
-        <v>83003</v>
+        <v>83015</v>
       </c>
       <c r="C87">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
-        <v>3503</v>
+        <v>3206</v>
       </c>
       <c r="B88">
-        <v>83002</v>
+        <v>83014</v>
       </c>
       <c r="C88">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
-        <v>3504</v>
+        <v>3207</v>
       </c>
       <c r="B89">
-        <v>83004</v>
+        <v>83001</v>
       </c>
       <c r="C89">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
-        <v>3505</v>
+        <v>3208</v>
       </c>
       <c r="B90">
-        <v>83007</v>
+        <v>83003</v>
       </c>
       <c r="C90">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
-        <v>3506</v>
+        <v>3209</v>
       </c>
       <c r="B91">
-        <v>83006</v>
+        <v>83002</v>
       </c>
       <c r="C91">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
-        <v>3507</v>
+        <v>3210</v>
       </c>
       <c r="B92">
-        <v>83009</v>
+        <v>83016</v>
       </c>
       <c r="C92">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
-        <v>3508</v>
+        <v>3211</v>
       </c>
       <c r="B93">
-        <v>83005</v>
+        <v>83019</v>
       </c>
       <c r="C93">
         <v>90</v>
@@ -1554,464 +1552,1685 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
-        <v>3509</v>
+        <v>3212</v>
       </c>
       <c r="B94">
-        <v>83008</v>
+        <v>83004</v>
       </c>
       <c r="C94">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
-        <v>3601</v>
+        <v>3213</v>
       </c>
       <c r="B95">
-        <v>83001</v>
+        <v>83007</v>
       </c>
       <c r="C95">
-        <v>340</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
-        <v>3602</v>
+        <v>3214</v>
       </c>
       <c r="B96">
-        <v>83003</v>
+        <v>83017</v>
       </c>
       <c r="C96">
-        <v>330</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
-        <v>3603</v>
+        <v>3215</v>
       </c>
       <c r="B97">
-        <v>83002</v>
+        <v>83020</v>
       </c>
       <c r="C97">
-        <v>330</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
-        <v>3701</v>
+        <v>3216</v>
       </c>
       <c r="B98">
-        <v>83001</v>
+        <v>83005</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
-        <v>3702</v>
+        <v>3217</v>
       </c>
       <c r="B99">
-        <v>83003</v>
+        <v>83008</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
-        <v>3703</v>
+        <v>3218</v>
       </c>
       <c r="B100">
-        <v>83002</v>
+        <v>83018</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
-        <v>3704</v>
+        <v>3219</v>
       </c>
       <c r="B101">
-        <v>83301</v>
+        <v>83021</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
-        <v>3705</v>
+        <v>3220</v>
       </c>
       <c r="B102">
-        <v>83302</v>
+        <v>83009</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
-        <v>3706</v>
+        <v>3221</v>
       </c>
       <c r="B103">
-        <v>83303</v>
+        <v>83006</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
-        <v>3707</v>
+        <v>3301</v>
       </c>
       <c r="B104">
-        <v>83304</v>
+        <v>83010</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
-        <v>3708</v>
+        <v>3302</v>
       </c>
       <c r="B105">
-        <v>83305</v>
+        <v>83012</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
-        <v>3709</v>
+        <v>3303</v>
       </c>
       <c r="B106">
-        <v>81003</v>
+        <v>83011</v>
       </c>
       <c r="C106">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
-        <v>3710</v>
+        <v>3304</v>
       </c>
       <c r="B107">
-        <v>81006</v>
+        <v>83013</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
-        <v>3711</v>
+        <v>3305</v>
       </c>
       <c r="B108">
-        <v>81009</v>
+        <v>83015</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
-        <v>3712</v>
+        <v>3306</v>
       </c>
       <c r="B109">
-        <v>80003</v>
+        <v>83014</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
-        <v>3713</v>
+        <v>3307</v>
       </c>
       <c r="B110">
-        <v>80006</v>
+        <v>83001</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
-        <v>3714</v>
+        <v>3308</v>
       </c>
       <c r="B111">
-        <v>80009</v>
+        <v>83003</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
-        <v>3715</v>
+        <v>3309</v>
       </c>
       <c r="B112">
-        <v>80012</v>
+        <v>83002</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
-        <v>3716</v>
+        <v>3310</v>
       </c>
       <c r="B113">
-        <v>80015</v>
+        <v>83016</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
-        <v>3717</v>
+        <v>3311</v>
       </c>
       <c r="B114">
-        <v>83004</v>
+        <v>83019</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
-        <v>3718</v>
+        <v>3312</v>
       </c>
       <c r="B115">
-        <v>83006</v>
+        <v>83004</v>
       </c>
       <c r="C115">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
-        <v>3719</v>
+        <v>3313</v>
       </c>
       <c r="B116">
-        <v>83008</v>
+        <v>83007</v>
       </c>
       <c r="C116">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
-        <v>3720</v>
+        <v>3314</v>
       </c>
       <c r="B117">
-        <v>83005</v>
+        <v>83017</v>
       </c>
       <c r="C117">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
-        <v>3721</v>
+        <v>3315</v>
       </c>
       <c r="B118">
-        <v>83007</v>
+        <v>83020</v>
       </c>
       <c r="C118">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
-        <v>3722</v>
+        <v>3316</v>
       </c>
       <c r="B119">
-        <v>83009</v>
+        <v>83005</v>
       </c>
       <c r="C119">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
-        <v>3723</v>
+        <v>3317</v>
       </c>
       <c r="B120">
-        <v>81010</v>
+        <v>83008</v>
       </c>
       <c r="C120">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
-        <v>3724</v>
+        <v>3318</v>
       </c>
       <c r="B121">
-        <v>81011</v>
+        <v>83018</v>
       </c>
       <c r="C121">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
-        <v>3725</v>
+        <v>3319</v>
       </c>
       <c r="B122">
-        <v>81012</v>
+        <v>83021</v>
       </c>
       <c r="C122">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="4">
-        <v>3726</v>
+        <v>3320</v>
       </c>
       <c r="B123">
-        <v>81013</v>
+        <v>83009</v>
       </c>
       <c r="C123">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
-        <v>3727</v>
+        <v>3321</v>
       </c>
       <c r="B124">
-        <v>81014</v>
+        <v>83006</v>
       </c>
       <c r="C124">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="4">
-        <v>3728</v>
+        <v>3401</v>
       </c>
       <c r="B125">
-        <v>81015</v>
+        <v>83010</v>
       </c>
       <c r="C125">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="4">
-        <v>3729</v>
+        <v>3402</v>
       </c>
       <c r="B126">
-        <v>83306</v>
+        <v>83012</v>
       </c>
       <c r="C126">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
-        <v>3730</v>
+        <v>3403</v>
       </c>
       <c r="B127">
-        <v>83307</v>
+        <v>83011</v>
       </c>
       <c r="C127">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
-        <v>3731</v>
+        <v>3404</v>
       </c>
       <c r="B128">
-        <v>83308</v>
+        <v>83013</v>
       </c>
       <c r="C128">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
-        <v>3732</v>
+        <v>3405</v>
       </c>
       <c r="B129">
-        <v>83309</v>
+        <v>83015</v>
       </c>
       <c r="C129">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
-        <v>3733</v>
+        <v>3406</v>
       </c>
       <c r="B130">
-        <v>83310</v>
+        <v>83014</v>
       </c>
       <c r="C130">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
-        <v>3734</v>
+        <v>3407</v>
       </c>
       <c r="B131">
-        <v>83311</v>
+        <v>83001</v>
       </c>
       <c r="C131">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
-        <v>3735</v>
+        <v>3408</v>
       </c>
       <c r="B132">
-        <v>83312</v>
+        <v>83003</v>
       </c>
       <c r="C132">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="4">
-        <v>3736</v>
+        <v>3409</v>
       </c>
       <c r="B133">
-        <v>83313</v>
+        <v>83002</v>
       </c>
       <c r="C133">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
-        <v>3737</v>
+        <v>3410</v>
       </c>
       <c r="B134">
-        <v>83314</v>
+        <v>83016</v>
       </c>
       <c r="C134">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="4">
-        <v>3738</v>
+        <v>3411</v>
       </c>
       <c r="B135">
-        <v>83315</v>
+        <v>83019</v>
       </c>
       <c r="C135">
-        <v>55</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="4">
+        <v>3412</v>
+      </c>
+      <c r="B136">
+        <v>83004</v>
+      </c>
+      <c r="C136">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="4">
+        <v>3413</v>
+      </c>
+      <c r="B137">
+        <v>83007</v>
+      </c>
+      <c r="C137">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="4">
+        <v>3414</v>
+      </c>
+      <c r="B138">
+        <v>83017</v>
+      </c>
+      <c r="C138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="4">
+        <v>3415</v>
+      </c>
+      <c r="B139">
+        <v>83020</v>
+      </c>
+      <c r="C139">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="4">
+        <v>3416</v>
+      </c>
+      <c r="B140">
+        <v>83005</v>
+      </c>
+      <c r="C140">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="4">
+        <v>3417</v>
+      </c>
+      <c r="B141">
+        <v>83008</v>
+      </c>
+      <c r="C141">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="4">
+        <v>3418</v>
+      </c>
+      <c r="B142">
+        <v>83018</v>
+      </c>
+      <c r="C142">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="4">
+        <v>3419</v>
+      </c>
+      <c r="B143">
+        <v>83021</v>
+      </c>
+      <c r="C143">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="4">
+        <v>3420</v>
+      </c>
+      <c r="B144">
+        <v>83009</v>
+      </c>
+      <c r="C144">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="4">
+        <v>3421</v>
+      </c>
+      <c r="B145">
+        <v>83006</v>
+      </c>
+      <c r="C145">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="4">
+        <v>3501</v>
+      </c>
+      <c r="B146">
+        <v>83010</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="4">
+        <v>3502</v>
+      </c>
+      <c r="B147">
+        <v>83012</v>
+      </c>
+      <c r="C147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="4">
+        <v>3503</v>
+      </c>
+      <c r="B148">
+        <v>83011</v>
+      </c>
+      <c r="C148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="4">
+        <v>3504</v>
+      </c>
+      <c r="B149">
+        <v>83013</v>
+      </c>
+      <c r="C149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="4">
+        <v>3505</v>
+      </c>
+      <c r="B150">
+        <v>83015</v>
+      </c>
+      <c r="C150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="4">
+        <v>3506</v>
+      </c>
+      <c r="B151">
+        <v>83014</v>
+      </c>
+      <c r="C151">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="4">
+        <v>3507</v>
+      </c>
+      <c r="B152">
+        <v>83001</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="4">
+        <v>3508</v>
+      </c>
+      <c r="B153">
+        <v>83003</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="4">
+        <v>3509</v>
+      </c>
+      <c r="B154">
+        <v>83002</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="4">
+        <v>3510</v>
+      </c>
+      <c r="B155">
+        <v>83016</v>
+      </c>
+      <c r="C155">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="4">
+        <v>3511</v>
+      </c>
+      <c r="B156">
+        <v>83019</v>
+      </c>
+      <c r="C156">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="4">
+        <v>3512</v>
+      </c>
+      <c r="B157">
+        <v>83004</v>
+      </c>
+      <c r="C157">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="4">
+        <v>3513</v>
+      </c>
+      <c r="B158">
+        <v>83007</v>
+      </c>
+      <c r="C158">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="4">
+        <v>3514</v>
+      </c>
+      <c r="B159">
+        <v>83017</v>
+      </c>
+      <c r="C159">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="4">
+        <v>3515</v>
+      </c>
+      <c r="B160">
+        <v>83020</v>
+      </c>
+      <c r="C160">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="4">
+        <v>3516</v>
+      </c>
+      <c r="B161">
+        <v>83005</v>
+      </c>
+      <c r="C161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="4">
+        <v>3517</v>
+      </c>
+      <c r="B162">
+        <v>83008</v>
+      </c>
+      <c r="C162">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="4">
+        <v>3518</v>
+      </c>
+      <c r="B163">
+        <v>83018</v>
+      </c>
+      <c r="C163">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="4">
+        <v>3519</v>
+      </c>
+      <c r="B164">
+        <v>83021</v>
+      </c>
+      <c r="C164">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="4">
+        <v>3520</v>
+      </c>
+      <c r="B165">
+        <v>83009</v>
+      </c>
+      <c r="C165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="4">
+        <v>3521</v>
+      </c>
+      <c r="B166">
+        <v>83006</v>
+      </c>
+      <c r="C166">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="4">
+        <v>3601</v>
+      </c>
+      <c r="B167">
+        <v>83010</v>
+      </c>
+      <c r="C167">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="4">
+        <v>3602</v>
+      </c>
+      <c r="B168">
+        <v>83012</v>
+      </c>
+      <c r="C168">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="4">
+        <v>3603</v>
+      </c>
+      <c r="B169">
+        <v>83011</v>
+      </c>
+      <c r="C169">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="4">
+        <v>3604</v>
+      </c>
+      <c r="B170">
+        <v>83013</v>
+      </c>
+      <c r="C170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="4">
+        <v>3605</v>
+      </c>
+      <c r="B171">
+        <v>83015</v>
+      </c>
+      <c r="C171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="4">
+        <v>3606</v>
+      </c>
+      <c r="B172">
+        <v>83014</v>
+      </c>
+      <c r="C172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="4">
+        <v>3607</v>
+      </c>
+      <c r="B173">
+        <v>83001</v>
+      </c>
+      <c r="C173">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="4">
+        <v>3608</v>
+      </c>
+      <c r="B174">
+        <v>83003</v>
+      </c>
+      <c r="C174">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="4">
+        <v>3609</v>
+      </c>
+      <c r="B175">
+        <v>83002</v>
+      </c>
+      <c r="C175">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="4">
+        <v>3701</v>
+      </c>
+      <c r="B176">
+        <v>83010</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="4">
+        <v>3702</v>
+      </c>
+      <c r="B177">
+        <v>83012</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="4">
+        <v>3703</v>
+      </c>
+      <c r="B178">
+        <v>83011</v>
+      </c>
+      <c r="C178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="4">
+        <v>3704</v>
+      </c>
+      <c r="B179">
+        <v>83013</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="4">
+        <v>3705</v>
+      </c>
+      <c r="B180">
+        <v>83015</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="4">
+        <v>3706</v>
+      </c>
+      <c r="B181">
+        <v>83014</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="4">
+        <v>3707</v>
+      </c>
+      <c r="B182">
+        <v>83001</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" s="4">
+        <v>3708</v>
+      </c>
+      <c r="B183">
+        <v>83003</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="4">
+        <v>3709</v>
+      </c>
+      <c r="B184">
+        <v>83002</v>
+      </c>
+      <c r="C184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" s="4">
+        <v>3710</v>
+      </c>
+      <c r="B185">
+        <v>83016</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" s="4">
+        <v>3711</v>
+      </c>
+      <c r="B186">
+        <v>83019</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" s="4">
+        <v>3712</v>
+      </c>
+      <c r="B187">
+        <v>83004</v>
+      </c>
+      <c r="C187">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" s="4">
+        <v>3713</v>
+      </c>
+      <c r="B188">
+        <v>83007</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" s="4">
+        <v>3714</v>
+      </c>
+      <c r="B189">
+        <v>83017</v>
+      </c>
+      <c r="C189">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" s="4">
+        <v>3715</v>
+      </c>
+      <c r="B190">
+        <v>83020</v>
+      </c>
+      <c r="C190">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" s="4">
+        <v>3716</v>
+      </c>
+      <c r="B191">
+        <v>83005</v>
+      </c>
+      <c r="C191">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" s="4">
+        <v>3717</v>
+      </c>
+      <c r="B192">
+        <v>83008</v>
+      </c>
+      <c r="C192">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" s="4">
+        <v>3718</v>
+      </c>
+      <c r="B193">
+        <v>83018</v>
+      </c>
+      <c r="C193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" s="4">
+        <v>3719</v>
+      </c>
+      <c r="B194">
+        <v>83021</v>
+      </c>
+      <c r="C194">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" s="4">
+        <v>3720</v>
+      </c>
+      <c r="B195">
+        <v>83009</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" s="4">
+        <v>3721</v>
+      </c>
+      <c r="B196">
+        <v>83006</v>
+      </c>
+      <c r="C196">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" s="4">
+        <v>3801</v>
+      </c>
+      <c r="B197">
+        <v>83010</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" s="4">
+        <v>3802</v>
+      </c>
+      <c r="B198">
+        <v>83012</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" s="4">
+        <v>3803</v>
+      </c>
+      <c r="B199">
+        <v>83011</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" s="4">
+        <v>3804</v>
+      </c>
+      <c r="B200">
+        <v>83013</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" s="4">
+        <v>3805</v>
+      </c>
+      <c r="B201">
+        <v>83015</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" s="4">
+        <v>3806</v>
+      </c>
+      <c r="B202">
+        <v>83014</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" s="4">
+        <v>3807</v>
+      </c>
+      <c r="B203">
+        <v>83001</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" s="4">
+        <v>3808</v>
+      </c>
+      <c r="B204">
+        <v>83003</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" s="4">
+        <v>3809</v>
+      </c>
+      <c r="B205">
+        <v>83002</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" s="4">
+        <v>3810</v>
+      </c>
+      <c r="B206">
+        <v>83301</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" s="4">
+        <v>3811</v>
+      </c>
+      <c r="B207">
+        <v>83302</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" s="4">
+        <v>3812</v>
+      </c>
+      <c r="B208">
+        <v>83303</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" s="4">
+        <v>3813</v>
+      </c>
+      <c r="B209">
+        <v>83304</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" s="4">
+        <v>3814</v>
+      </c>
+      <c r="B210">
+        <v>83305</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" s="4">
+        <v>3815</v>
+      </c>
+      <c r="B211">
+        <v>81003</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" s="4">
+        <v>3816</v>
+      </c>
+      <c r="B212">
+        <v>81006</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" s="4">
+        <v>3817</v>
+      </c>
+      <c r="B213">
+        <v>81009</v>
+      </c>
+      <c r="C213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" s="4">
+        <v>3818</v>
+      </c>
+      <c r="B214">
+        <v>80003</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" s="4">
+        <v>3819</v>
+      </c>
+      <c r="B215">
+        <v>80006</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" s="4">
+        <v>3820</v>
+      </c>
+      <c r="B216">
+        <v>80009</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" s="4">
+        <v>3821</v>
+      </c>
+      <c r="B217">
+        <v>80012</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" s="4">
+        <v>3822</v>
+      </c>
+      <c r="B218">
+        <v>80015</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" s="4">
+        <v>3823</v>
+      </c>
+      <c r="B219">
+        <v>83016</v>
+      </c>
+      <c r="C219">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" s="4">
+        <v>3824</v>
+      </c>
+      <c r="B220">
+        <v>83019</v>
+      </c>
+      <c r="C220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" s="4">
+        <v>3825</v>
+      </c>
+      <c r="B221">
+        <v>83004</v>
+      </c>
+      <c r="C221">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" s="4">
+        <v>3826</v>
+      </c>
+      <c r="B222">
+        <v>83007</v>
+      </c>
+      <c r="C222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" s="4">
+        <v>3827</v>
+      </c>
+      <c r="B223">
+        <v>83017</v>
+      </c>
+      <c r="C223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224" s="4">
+        <v>3828</v>
+      </c>
+      <c r="B224">
+        <v>83020</v>
+      </c>
+      <c r="C224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225" s="4">
+        <v>3829</v>
+      </c>
+      <c r="B225">
+        <v>83005</v>
+      </c>
+      <c r="C225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" s="4">
+        <v>3830</v>
+      </c>
+      <c r="B226">
+        <v>83008</v>
+      </c>
+      <c r="C226">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" s="4">
+        <v>3831</v>
+      </c>
+      <c r="B227">
+        <v>83018</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228" s="4">
+        <v>3832</v>
+      </c>
+      <c r="B228">
+        <v>83021</v>
+      </c>
+      <c r="C228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229" s="4">
+        <v>3833</v>
+      </c>
+      <c r="B229">
+        <v>83009</v>
+      </c>
+      <c r="C229">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230" s="4">
+        <v>3834</v>
+      </c>
+      <c r="B230">
+        <v>83006</v>
+      </c>
+      <c r="C230">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231" s="4">
+        <v>3835</v>
+      </c>
+      <c r="B231">
+        <v>81010</v>
+      </c>
+      <c r="C231">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" s="4">
+        <v>3836</v>
+      </c>
+      <c r="B232">
+        <v>81011</v>
+      </c>
+      <c r="C232">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233" s="4">
+        <v>3837</v>
+      </c>
+      <c r="B233">
+        <v>81012</v>
+      </c>
+      <c r="C233">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" s="4">
+        <v>3838</v>
+      </c>
+      <c r="B234">
+        <v>81013</v>
+      </c>
+      <c r="C234">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" s="4">
+        <v>3839</v>
+      </c>
+      <c r="B235">
+        <v>81014</v>
+      </c>
+      <c r="C235">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" s="4">
+        <v>3840</v>
+      </c>
+      <c r="B236">
+        <v>81015</v>
+      </c>
+      <c r="C236">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237" s="4">
+        <v>3841</v>
+      </c>
+      <c r="B237">
+        <v>22048</v>
+      </c>
+      <c r="C237">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238" s="4">
+        <v>3842</v>
+      </c>
+      <c r="B238">
+        <v>22049</v>
+      </c>
+      <c r="C238">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239" s="4">
+        <v>3843</v>
+      </c>
+      <c r="B239">
+        <v>22050</v>
+      </c>
+      <c r="C239">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240" s="4">
+        <v>3844</v>
+      </c>
+      <c r="B240">
+        <v>22051</v>
+      </c>
+      <c r="C240">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241" s="4">
+        <v>3845</v>
+      </c>
+      <c r="B241">
+        <v>22052</v>
+      </c>
+      <c r="C241">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242" s="4">
+        <v>3846</v>
+      </c>
+      <c r="B242">
+        <v>22053</v>
+      </c>
+      <c r="C242">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243" s="4">
+        <v>3847</v>
+      </c>
+      <c r="B243">
+        <v>22054</v>
+      </c>
+      <c r="C243">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244" s="4">
+        <v>3848</v>
+      </c>
+      <c r="B244">
+        <v>22055</v>
+      </c>
+      <c r="C244">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245" s="4">
+        <v>3849</v>
+      </c>
+      <c r="B245">
+        <v>22056</v>
+      </c>
+      <c r="C245">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246" s="4">
+        <v>3850</v>
+      </c>
+      <c r="B246">
+        <v>22057</v>
+      </c>
+      <c r="C246">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A15CE-5EE5-4DF3-9821-3AC5055D660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8D38C2-D8EE-42D0-9A6B-646F78C5FF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
@@ -179,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,6 +193,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -213,8 +216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C246" totalsRowShown="0">
-  <autoFilter ref="A1:C246" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C223" totalsRowShown="0">
+  <autoFilter ref="A1:C223" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{358519ED-32C8-4508-8144-29ACB38F27A8}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E7BBA6B5-5187-4F06-B5DF-883CFF29A348}" name="Bonus"/>
@@ -521,9 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE6F7D5-490B-4B37-B783-95A58BBE7927}">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G203" sqref="G203"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -968,7 +973,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>3001</v>
       </c>
       <c r="B41">
@@ -979,7 +984,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>3002</v>
       </c>
       <c r="B42">
@@ -990,7 +995,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>3003</v>
       </c>
       <c r="B43">
@@ -1001,7 +1006,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>3004</v>
       </c>
       <c r="B44">
@@ -1012,7 +1017,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>3005</v>
       </c>
       <c r="B45">
@@ -1023,7 +1028,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>3006</v>
       </c>
       <c r="B46">
@@ -1034,7 +1039,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>3007</v>
       </c>
       <c r="B47">
@@ -1045,7 +1050,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>3008</v>
       </c>
       <c r="B48">
@@ -1056,7 +1061,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>3009</v>
       </c>
       <c r="B49">
@@ -1067,7 +1072,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>3010</v>
       </c>
       <c r="B50">
@@ -1078,7 +1083,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>3011</v>
       </c>
       <c r="B51">
@@ -1089,7 +1094,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>3012</v>
       </c>
       <c r="B52">
@@ -1100,7 +1105,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>3013</v>
       </c>
       <c r="B53">
@@ -1111,7 +1116,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>3014</v>
       </c>
       <c r="B54">
@@ -1122,7 +1127,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>3015</v>
       </c>
       <c r="B55">
@@ -1133,7 +1138,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>3016</v>
       </c>
       <c r="B56">
@@ -1144,7 +1149,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>3017</v>
       </c>
       <c r="B57">
@@ -1155,7 +1160,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>3018</v>
       </c>
       <c r="B58">
@@ -1166,7 +1171,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>3019</v>
       </c>
       <c r="B59">
@@ -1177,7 +1182,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>3020</v>
       </c>
       <c r="B60">
@@ -1188,7 +1193,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>3021</v>
       </c>
       <c r="B61">
@@ -1199,7 +1204,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>3101</v>
       </c>
       <c r="B62">
@@ -1210,7 +1215,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>3102</v>
       </c>
       <c r="B63">
@@ -1221,7 +1226,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>3103</v>
       </c>
       <c r="B64">
@@ -1232,7 +1237,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>3104</v>
       </c>
       <c r="B65">
@@ -1243,7 +1248,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>3105</v>
       </c>
       <c r="B66">
@@ -1254,7 +1259,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>3106</v>
       </c>
       <c r="B67">
@@ -1265,7 +1270,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>3107</v>
       </c>
       <c r="B68">
@@ -1276,7 +1281,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>3108</v>
       </c>
       <c r="B69">
@@ -1287,7 +1292,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>3109</v>
       </c>
       <c r="B70">
@@ -1298,7 +1303,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>3110</v>
       </c>
       <c r="B71">
@@ -1309,7 +1314,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>3111</v>
       </c>
       <c r="B72">
@@ -1320,7 +1325,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>3112</v>
       </c>
       <c r="B73">
@@ -1331,7 +1336,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>3113</v>
       </c>
       <c r="B74">
@@ -1342,7 +1347,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>3114</v>
       </c>
       <c r="B75">
@@ -1353,7 +1358,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>3115</v>
       </c>
       <c r="B76">
@@ -1364,7 +1369,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>3116</v>
       </c>
       <c r="B77">
@@ -1375,7 +1380,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>3117</v>
       </c>
       <c r="B78">
@@ -1386,7 +1391,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>3118</v>
       </c>
       <c r="B79">
@@ -1397,7 +1402,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>3119</v>
       </c>
       <c r="B80">
@@ -1408,7 +1413,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>3120</v>
       </c>
       <c r="B81">
@@ -1419,7 +1424,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>3121</v>
       </c>
       <c r="B82">
@@ -1430,7 +1435,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>3201</v>
       </c>
       <c r="B83">
@@ -1441,7 +1446,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>3202</v>
       </c>
       <c r="B84">
@@ -1452,7 +1457,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>3203</v>
       </c>
       <c r="B85">
@@ -1463,7 +1468,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>3204</v>
       </c>
       <c r="B86">
@@ -1474,7 +1479,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>3205</v>
       </c>
       <c r="B87">
@@ -1485,7 +1490,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>3206</v>
       </c>
       <c r="B88">
@@ -1496,7 +1501,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>3207</v>
       </c>
       <c r="B89">
@@ -1507,7 +1512,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>3208</v>
       </c>
       <c r="B90">
@@ -1518,7 +1523,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>3209</v>
       </c>
       <c r="B91">
@@ -1529,7 +1534,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>3210</v>
       </c>
       <c r="B92">
@@ -1540,7 +1545,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>3211</v>
       </c>
       <c r="B93">
@@ -1551,7 +1556,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>3212</v>
       </c>
       <c r="B94">
@@ -1562,7 +1567,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>3213</v>
       </c>
       <c r="B95">
@@ -1573,7 +1578,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>3214</v>
       </c>
       <c r="B96">
@@ -1584,7 +1589,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>3215</v>
       </c>
       <c r="B97">
@@ -1595,7 +1600,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>3216</v>
       </c>
       <c r="B98">
@@ -1606,7 +1611,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>3217</v>
       </c>
       <c r="B99">
@@ -1617,7 +1622,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>3218</v>
       </c>
       <c r="B100">
@@ -1628,7 +1633,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>3219</v>
       </c>
       <c r="B101">
@@ -1639,7 +1644,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" s="4">
+      <c r="A102" s="5">
         <v>3220</v>
       </c>
       <c r="B102">
@@ -1650,7 +1655,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>3221</v>
       </c>
       <c r="B103">
@@ -1661,7 +1666,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104" s="4">
+      <c r="A104" s="5">
         <v>3301</v>
       </c>
       <c r="B104">
@@ -1672,7 +1677,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>3302</v>
       </c>
       <c r="B105">
@@ -1683,7 +1688,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" s="4">
+      <c r="A106" s="5">
         <v>3303</v>
       </c>
       <c r="B106">
@@ -1694,7 +1699,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107" s="4">
+      <c r="A107" s="5">
         <v>3304</v>
       </c>
       <c r="B107">
@@ -1705,7 +1710,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108" s="4">
+      <c r="A108" s="5">
         <v>3305</v>
       </c>
       <c r="B108">
@@ -1716,7 +1721,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109" s="4">
+      <c r="A109" s="5">
         <v>3306</v>
       </c>
       <c r="B109">
@@ -1727,7 +1732,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110" s="4">
+      <c r="A110" s="5">
         <v>3307</v>
       </c>
       <c r="B110">
@@ -1738,7 +1743,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111" s="4">
+      <c r="A111" s="5">
         <v>3308</v>
       </c>
       <c r="B111">
@@ -1749,7 +1754,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112" s="4">
+      <c r="A112" s="5">
         <v>3309</v>
       </c>
       <c r="B112">
@@ -1760,7 +1765,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113" s="4">
+      <c r="A113" s="5">
         <v>3310</v>
       </c>
       <c r="B113">
@@ -1771,7 +1776,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114" s="4">
+      <c r="A114" s="5">
         <v>3311</v>
       </c>
       <c r="B114">
@@ -1782,7 +1787,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115" s="4">
+      <c r="A115" s="5">
         <v>3312</v>
       </c>
       <c r="B115">
@@ -1793,7 +1798,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116" s="4">
+      <c r="A116" s="5">
         <v>3313</v>
       </c>
       <c r="B116">
@@ -1804,7 +1809,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117" s="4">
+      <c r="A117" s="5">
         <v>3314</v>
       </c>
       <c r="B117">
@@ -1815,7 +1820,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118" s="4">
+      <c r="A118" s="5">
         <v>3315</v>
       </c>
       <c r="B118">
@@ -1826,7 +1831,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119" s="4">
+      <c r="A119" s="5">
         <v>3316</v>
       </c>
       <c r="B119">
@@ -1837,7 +1842,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120" s="4">
+      <c r="A120" s="5">
         <v>3317</v>
       </c>
       <c r="B120">
@@ -1848,7 +1853,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121" s="4">
+      <c r="A121" s="5">
         <v>3318</v>
       </c>
       <c r="B121">
@@ -1859,7 +1864,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" s="4">
+      <c r="A122" s="5">
         <v>3319</v>
       </c>
       <c r="B122">
@@ -1870,7 +1875,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" s="4">
+      <c r="A123" s="5">
         <v>3320</v>
       </c>
       <c r="B123">
@@ -1881,7 +1886,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124" s="4">
+      <c r="A124" s="5">
         <v>3321</v>
       </c>
       <c r="B124">
@@ -1892,7 +1897,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" s="4">
+      <c r="A125" s="5">
         <v>3401</v>
       </c>
       <c r="B125">
@@ -1903,7 +1908,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126" s="4">
+      <c r="A126" s="5">
         <v>3402</v>
       </c>
       <c r="B126">
@@ -1914,7 +1919,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127" s="4">
+      <c r="A127" s="5">
         <v>3403</v>
       </c>
       <c r="B127">
@@ -1925,7 +1930,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" s="4">
+      <c r="A128" s="5">
         <v>3404</v>
       </c>
       <c r="B128">
@@ -1936,7 +1941,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" s="4">
+      <c r="A129" s="5">
         <v>3405</v>
       </c>
       <c r="B129">
@@ -1947,7 +1952,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" s="4">
+      <c r="A130" s="5">
         <v>3406</v>
       </c>
       <c r="B130">
@@ -1958,7 +1963,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" s="4">
+      <c r="A131" s="5">
         <v>3407</v>
       </c>
       <c r="B131">
@@ -1969,7 +1974,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" s="4">
+      <c r="A132" s="5">
         <v>3408</v>
       </c>
       <c r="B132">
@@ -1980,7 +1985,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" s="4">
+      <c r="A133" s="5">
         <v>3409</v>
       </c>
       <c r="B133">
@@ -1991,7 +1996,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" s="4">
+      <c r="A134" s="5">
         <v>3410</v>
       </c>
       <c r="B134">
@@ -2002,7 +2007,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" s="4">
+      <c r="A135" s="5">
         <v>3411</v>
       </c>
       <c r="B135">
@@ -2013,7 +2018,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" s="4">
+      <c r="A136" s="5">
         <v>3412</v>
       </c>
       <c r="B136">
@@ -2024,7 +2029,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" s="4">
+      <c r="A137" s="5">
         <v>3413</v>
       </c>
       <c r="B137">
@@ -2035,7 +2040,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" s="4">
+      <c r="A138" s="5">
         <v>3414</v>
       </c>
       <c r="B138">
@@ -2046,7 +2051,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" s="4">
+      <c r="A139" s="5">
         <v>3415</v>
       </c>
       <c r="B139">
@@ -2057,7 +2062,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" s="4">
+      <c r="A140" s="5">
         <v>3416</v>
       </c>
       <c r="B140">
@@ -2068,7 +2073,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" s="4">
+      <c r="A141" s="5">
         <v>3417</v>
       </c>
       <c r="B141">
@@ -2079,7 +2084,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" s="4">
+      <c r="A142" s="5">
         <v>3418</v>
       </c>
       <c r="B142">
@@ -2090,7 +2095,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" s="4">
+      <c r="A143" s="5">
         <v>3419</v>
       </c>
       <c r="B143">
@@ -2101,7 +2106,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" s="4">
+      <c r="A144" s="5">
         <v>3420</v>
       </c>
       <c r="B144">
@@ -2112,7 +2117,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145" s="4">
+      <c r="A145" s="5">
         <v>3421</v>
       </c>
       <c r="B145">
@@ -2123,7 +2128,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146" s="4">
+      <c r="A146" s="5">
         <v>3501</v>
       </c>
       <c r="B146">
@@ -2134,7 +2139,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147" s="4">
+      <c r="A147" s="5">
         <v>3502</v>
       </c>
       <c r="B147">
@@ -2145,7 +2150,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" s="4">
+      <c r="A148" s="5">
         <v>3503</v>
       </c>
       <c r="B148">
@@ -2156,7 +2161,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149" s="4">
+      <c r="A149" s="5">
         <v>3504</v>
       </c>
       <c r="B149">
@@ -2167,7 +2172,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150" s="4">
+      <c r="A150" s="5">
         <v>3505</v>
       </c>
       <c r="B150">
@@ -2178,7 +2183,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151" s="4">
+      <c r="A151" s="5">
         <v>3506</v>
       </c>
       <c r="B151">
@@ -2189,7 +2194,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" s="4">
+      <c r="A152" s="5">
         <v>3507</v>
       </c>
       <c r="B152">
@@ -2200,7 +2205,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" s="4">
+      <c r="A153" s="5">
         <v>3508</v>
       </c>
       <c r="B153">
@@ -2211,7 +2216,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" s="4">
+      <c r="A154" s="5">
         <v>3509</v>
       </c>
       <c r="B154">
@@ -2222,7 +2227,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155" s="4">
+      <c r="A155" s="5">
         <v>3510</v>
       </c>
       <c r="B155">
@@ -2233,7 +2238,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" s="4">
+      <c r="A156" s="5">
         <v>3511</v>
       </c>
       <c r="B156">
@@ -2244,7 +2249,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157" s="4">
+      <c r="A157" s="5">
         <v>3512</v>
       </c>
       <c r="B157">
@@ -2255,7 +2260,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" s="4">
+      <c r="A158" s="5">
         <v>3513</v>
       </c>
       <c r="B158">
@@ -2266,7 +2271,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" s="4">
+      <c r="A159" s="5">
         <v>3514</v>
       </c>
       <c r="B159">
@@ -2277,7 +2282,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" s="4">
+      <c r="A160" s="5">
         <v>3515</v>
       </c>
       <c r="B160">
@@ -2288,7 +2293,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="4">
+      <c r="A161" s="5">
         <v>3516</v>
       </c>
       <c r="B161">
@@ -2299,7 +2304,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="4">
+      <c r="A162" s="5">
         <v>3517</v>
       </c>
       <c r="B162">
@@ -2310,7 +2315,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="4">
+      <c r="A163" s="5">
         <v>3518</v>
       </c>
       <c r="B163">
@@ -2321,7 +2326,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" s="4">
+      <c r="A164" s="5">
         <v>3519</v>
       </c>
       <c r="B164">
@@ -2332,7 +2337,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" s="4">
+      <c r="A165" s="5">
         <v>3520</v>
       </c>
       <c r="B165">
@@ -2343,7 +2348,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166" s="4">
+      <c r="A166" s="5">
         <v>3521</v>
       </c>
       <c r="B166">
@@ -2354,7 +2359,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167" s="4">
+      <c r="A167" s="5">
         <v>3601</v>
       </c>
       <c r="B167">
@@ -2365,7 +2370,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" s="4">
+      <c r="A168" s="5">
         <v>3602</v>
       </c>
       <c r="B168">
@@ -2376,7 +2381,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169" s="4">
+      <c r="A169" s="5">
         <v>3603</v>
       </c>
       <c r="B169">
@@ -2387,7 +2392,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170" s="4">
+      <c r="A170" s="5">
         <v>3604</v>
       </c>
       <c r="B170">
@@ -2398,7 +2403,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171" s="4">
+      <c r="A171" s="5">
         <v>3605</v>
       </c>
       <c r="B171">
@@ -2409,7 +2414,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" s="4">
+      <c r="A172" s="5">
         <v>3606</v>
       </c>
       <c r="B172">
@@ -2420,7 +2425,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A173" s="4">
+      <c r="A173" s="5">
         <v>3607</v>
       </c>
       <c r="B173">
@@ -2431,7 +2436,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A174" s="4">
+      <c r="A174" s="5">
         <v>3608</v>
       </c>
       <c r="B174">
@@ -2442,7 +2447,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A175" s="4">
+      <c r="A175" s="5">
         <v>3609</v>
       </c>
       <c r="B175">
@@ -2453,7 +2458,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A176" s="4">
+      <c r="A176" s="5">
         <v>3701</v>
       </c>
       <c r="B176">
@@ -2464,7 +2469,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177" s="4">
+      <c r="A177" s="5">
         <v>3702</v>
       </c>
       <c r="B177">
@@ -2475,7 +2480,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" s="4">
+      <c r="A178" s="5">
         <v>3703</v>
       </c>
       <c r="B178">
@@ -2486,7 +2491,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" s="4">
+      <c r="A179" s="5">
         <v>3704</v>
       </c>
       <c r="B179">
@@ -2497,7 +2502,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" s="4">
+      <c r="A180" s="5">
         <v>3705</v>
       </c>
       <c r="B180">
@@ -2508,7 +2513,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" s="4">
+      <c r="A181" s="5">
         <v>3706</v>
       </c>
       <c r="B181">
@@ -2519,7 +2524,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" s="4">
+      <c r="A182" s="5">
         <v>3707</v>
       </c>
       <c r="B182">
@@ -2530,7 +2535,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A183" s="4">
+      <c r="A183" s="5">
         <v>3708</v>
       </c>
       <c r="B183">
@@ -2541,7 +2546,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184" s="4">
+      <c r="A184" s="5">
         <v>3709</v>
       </c>
       <c r="B184">
@@ -2552,7 +2557,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185" s="4">
+      <c r="A185" s="5">
         <v>3710</v>
       </c>
       <c r="B185">
@@ -2563,7 +2568,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186" s="4">
+      <c r="A186" s="5">
         <v>3711</v>
       </c>
       <c r="B186">
@@ -2574,7 +2579,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187" s="4">
+      <c r="A187" s="5">
         <v>3712</v>
       </c>
       <c r="B187">
@@ -2585,7 +2590,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A188" s="4">
+      <c r="A188" s="5">
         <v>3713</v>
       </c>
       <c r="B188">
@@ -2596,7 +2601,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A189" s="4">
+      <c r="A189" s="5">
         <v>3714</v>
       </c>
       <c r="B189">
@@ -2607,7 +2612,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A190" s="4">
+      <c r="A190" s="5">
         <v>3715</v>
       </c>
       <c r="B190">
@@ -2618,7 +2623,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A191" s="4">
+      <c r="A191" s="5">
         <v>3716</v>
       </c>
       <c r="B191">
@@ -2629,7 +2634,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A192" s="4">
+      <c r="A192" s="5">
         <v>3717</v>
       </c>
       <c r="B192">
@@ -2640,7 +2645,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A193" s="4">
+      <c r="A193" s="5">
         <v>3718</v>
       </c>
       <c r="B193">
@@ -2651,7 +2656,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194" s="4">
+      <c r="A194" s="5">
         <v>3719</v>
       </c>
       <c r="B194">
@@ -2662,7 +2667,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195" s="4">
+      <c r="A195" s="5">
         <v>3720</v>
       </c>
       <c r="B195">
@@ -2673,7 +2678,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196" s="4">
+      <c r="A196" s="5">
         <v>3721</v>
       </c>
       <c r="B196">
@@ -2787,10 +2792,10 @@
         <v>3810</v>
       </c>
       <c r="B206">
-        <v>83301</v>
+        <v>83016</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
@@ -2798,10 +2803,10 @@
         <v>3811</v>
       </c>
       <c r="B207">
-        <v>83302</v>
+        <v>83019</v>
       </c>
       <c r="C207">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
@@ -2809,10 +2814,10 @@
         <v>3812</v>
       </c>
       <c r="B208">
-        <v>83303</v>
+        <v>83004</v>
       </c>
       <c r="C208">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
@@ -2820,10 +2825,10 @@
         <v>3813</v>
       </c>
       <c r="B209">
-        <v>83304</v>
+        <v>83007</v>
       </c>
       <c r="C209">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
@@ -2831,10 +2836,10 @@
         <v>3814</v>
       </c>
       <c r="B210">
-        <v>83305</v>
+        <v>83017</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
@@ -2842,10 +2847,10 @@
         <v>3815</v>
       </c>
       <c r="B211">
-        <v>81003</v>
+        <v>83020</v>
       </c>
       <c r="C211">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
@@ -2853,10 +2858,10 @@
         <v>3816</v>
       </c>
       <c r="B212">
-        <v>81006</v>
+        <v>83005</v>
       </c>
       <c r="C212">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
@@ -2864,10 +2869,10 @@
         <v>3817</v>
       </c>
       <c r="B213">
-        <v>81009</v>
+        <v>83008</v>
       </c>
       <c r="C213">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
@@ -2875,10 +2880,10 @@
         <v>3818</v>
       </c>
       <c r="B214">
-        <v>80003</v>
+        <v>83018</v>
       </c>
       <c r="C214">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
@@ -2886,10 +2891,10 @@
         <v>3819</v>
       </c>
       <c r="B215">
-        <v>80006</v>
+        <v>83021</v>
       </c>
       <c r="C215">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
@@ -2897,10 +2902,10 @@
         <v>3820</v>
       </c>
       <c r="B216">
-        <v>80009</v>
+        <v>83009</v>
       </c>
       <c r="C216">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
@@ -2908,10 +2913,10 @@
         <v>3821</v>
       </c>
       <c r="B217">
-        <v>80012</v>
+        <v>83006</v>
       </c>
       <c r="C217">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
@@ -2919,10 +2924,10 @@
         <v>3822</v>
       </c>
       <c r="B218">
-        <v>80015</v>
+        <v>83022</v>
       </c>
       <c r="C218">
-        <v>5</v>
+        <v>140</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
@@ -2930,10 +2935,10 @@
         <v>3823</v>
       </c>
       <c r="B219">
-        <v>83016</v>
+        <v>83023</v>
       </c>
       <c r="C219">
-        <v>10</v>
+        <v>145</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
@@ -2941,10 +2946,10 @@
         <v>3824</v>
       </c>
       <c r="B220">
-        <v>83019</v>
+        <v>83024</v>
       </c>
       <c r="C220">
-        <v>10</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
@@ -2952,10 +2957,10 @@
         <v>3825</v>
       </c>
       <c r="B221">
-        <v>83004</v>
+        <v>83025</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
@@ -2963,10 +2968,10 @@
         <v>3826</v>
       </c>
       <c r="B222">
-        <v>83007</v>
+        <v>83026</v>
       </c>
       <c r="C222">
-        <v>10</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
@@ -2974,263 +2979,10 @@
         <v>3827</v>
       </c>
       <c r="B223">
-        <v>83017</v>
+        <v>83027</v>
       </c>
       <c r="C223">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A224" s="4">
-        <v>3828</v>
-      </c>
-      <c r="B224">
-        <v>83020</v>
-      </c>
-      <c r="C224">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A225" s="4">
-        <v>3829</v>
-      </c>
-      <c r="B225">
-        <v>83005</v>
-      </c>
-      <c r="C225">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A226" s="4">
-        <v>3830</v>
-      </c>
-      <c r="B226">
-        <v>83008</v>
-      </c>
-      <c r="C226">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A227" s="4">
-        <v>3831</v>
-      </c>
-      <c r="B227">
-        <v>83018</v>
-      </c>
-      <c r="C227">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A228" s="4">
-        <v>3832</v>
-      </c>
-      <c r="B228">
-        <v>83021</v>
-      </c>
-      <c r="C228">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A229" s="4">
-        <v>3833</v>
-      </c>
-      <c r="B229">
-        <v>83009</v>
-      </c>
-      <c r="C229">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A230" s="4">
-        <v>3834</v>
-      </c>
-      <c r="B230">
-        <v>83006</v>
-      </c>
-      <c r="C230">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A231" s="4">
-        <v>3835</v>
-      </c>
-      <c r="B231">
-        <v>81010</v>
-      </c>
-      <c r="C231">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A232" s="4">
-        <v>3836</v>
-      </c>
-      <c r="B232">
-        <v>81011</v>
-      </c>
-      <c r="C232">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A233" s="4">
-        <v>3837</v>
-      </c>
-      <c r="B233">
-        <v>81012</v>
-      </c>
-      <c r="C233">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A234" s="4">
-        <v>3838</v>
-      </c>
-      <c r="B234">
-        <v>81013</v>
-      </c>
-      <c r="C234">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A235" s="4">
-        <v>3839</v>
-      </c>
-      <c r="B235">
-        <v>81014</v>
-      </c>
-      <c r="C235">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A236" s="4">
-        <v>3840</v>
-      </c>
-      <c r="B236">
-        <v>81015</v>
-      </c>
-      <c r="C236">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A237" s="4">
-        <v>3841</v>
-      </c>
-      <c r="B237">
-        <v>22048</v>
-      </c>
-      <c r="C237">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A238" s="4">
-        <v>3842</v>
-      </c>
-      <c r="B238">
-        <v>22049</v>
-      </c>
-      <c r="C238">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A239" s="4">
-        <v>3843</v>
-      </c>
-      <c r="B239">
-        <v>22050</v>
-      </c>
-      <c r="C239">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A240" s="4">
-        <v>3844</v>
-      </c>
-      <c r="B240">
-        <v>22051</v>
-      </c>
-      <c r="C240">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A241" s="4">
-        <v>3845</v>
-      </c>
-      <c r="B241">
-        <v>22052</v>
-      </c>
-      <c r="C241">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A242" s="4">
-        <v>3846</v>
-      </c>
-      <c r="B242">
-        <v>22053</v>
-      </c>
-      <c r="C242">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A243" s="4">
-        <v>3847</v>
-      </c>
-      <c r="B243">
-        <v>22054</v>
-      </c>
-      <c r="C243">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A244" s="4">
-        <v>3848</v>
-      </c>
-      <c r="B244">
-        <v>22055</v>
-      </c>
-      <c r="C244">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A245" s="4">
-        <v>3849</v>
-      </c>
-      <c r="B245">
-        <v>22056</v>
-      </c>
-      <c r="C245">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A246" s="4">
-        <v>3850</v>
-      </c>
-      <c r="B246">
-        <v>22057</v>
-      </c>
-      <c r="C246">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8D38C2-D8EE-42D0-9A6B-646F78C5FF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B1A7E-87EA-419E-BF79-FFED296C75D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,12 +119,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,12 +184,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -216,8 +204,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C223" totalsRowShown="0">
-  <autoFilter ref="A1:C223" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}" name="テーブル1" displayName="テーブル1" ref="A1:C301" totalsRowShown="0">
+  <autoFilter ref="A1:C301" xr:uid="{CD92FCD1-45AF-4499-AF43-FAC4BB176121}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{358519ED-32C8-4508-8144-29ACB38F27A8}" name="ID"/>
     <tableColumn id="2" xr3:uid="{E7BBA6B5-5187-4F06-B5DF-883CFF29A348}" name="Bonus"/>
@@ -524,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE6F7D5-490B-4B37-B783-95A58BBE7927}">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -973,2016 +961,2874 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="5">
+      <c r="A41">
         <v>3001</v>
       </c>
       <c r="B41">
+        <v>83028</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>3002</v>
+      </c>
+      <c r="B42">
+        <v>83029</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>3003</v>
+      </c>
+      <c r="B43">
+        <v>83030</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>3004</v>
+      </c>
+      <c r="B44">
+        <v>83031</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>3005</v>
+      </c>
+      <c r="B45">
+        <v>83032</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>3006</v>
+      </c>
+      <c r="B46">
+        <v>83033</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>3007</v>
+      </c>
+      <c r="B47">
         <v>83010</v>
       </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="5">
-        <v>3002</v>
-      </c>
-      <c r="B42">
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>3008</v>
+      </c>
+      <c r="B48">
         <v>83012</v>
       </c>
-      <c r="C42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="5">
-        <v>3003</v>
-      </c>
-      <c r="B43">
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>3009</v>
+      </c>
+      <c r="B49">
         <v>83011</v>
       </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="5">
-        <v>3004</v>
-      </c>
-      <c r="B44">
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>3010</v>
+      </c>
+      <c r="B50">
         <v>83013</v>
       </c>
-      <c r="C44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="5">
-        <v>3005</v>
-      </c>
-      <c r="B45">
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>3011</v>
+      </c>
+      <c r="B51">
         <v>83015</v>
       </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="5">
-        <v>3006</v>
-      </c>
-      <c r="B46">
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>3012</v>
+      </c>
+      <c r="B52">
         <v>83014</v>
       </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="5">
-        <v>3007</v>
-      </c>
-      <c r="B47">
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>3013</v>
+      </c>
+      <c r="B53">
         <v>83001</v>
       </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="5">
-        <v>3008</v>
-      </c>
-      <c r="B48">
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>3014</v>
+      </c>
+      <c r="B54">
         <v>83003</v>
       </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="5">
-        <v>3009</v>
-      </c>
-      <c r="B49">
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>3015</v>
+      </c>
+      <c r="B55">
         <v>83002</v>
       </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="5">
-        <v>3010</v>
-      </c>
-      <c r="B50">
-        <v>83016</v>
-      </c>
-      <c r="C50">
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>3016</v>
+      </c>
+      <c r="B56">
+        <v>83034</v>
+      </c>
+      <c r="C56">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="5">
-        <v>3011</v>
-      </c>
-      <c r="B51">
-        <v>83019</v>
-      </c>
-      <c r="C51">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>3017</v>
+      </c>
+      <c r="B57">
+        <v>83035</v>
+      </c>
+      <c r="C57">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="5">
-        <v>3012</v>
-      </c>
-      <c r="B52">
-        <v>83004</v>
-      </c>
-      <c r="C52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="5">
-        <v>3013</v>
-      </c>
-      <c r="B53">
-        <v>83007</v>
-      </c>
-      <c r="C53">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="5">
-        <v>3014</v>
-      </c>
-      <c r="B54">
-        <v>83017</v>
-      </c>
-      <c r="C54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="5">
-        <v>3015</v>
-      </c>
-      <c r="B55">
-        <v>83020</v>
-      </c>
-      <c r="C55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="5">
-        <v>3016</v>
-      </c>
-      <c r="B56">
-        <v>83005</v>
-      </c>
-      <c r="C56">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="5">
-        <v>3017</v>
-      </c>
-      <c r="B57">
-        <v>83008</v>
-      </c>
-      <c r="C57">
-        <v>60</v>
-      </c>
-    </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="5">
+      <c r="A58">
         <v>3018</v>
       </c>
       <c r="B58">
-        <v>83018</v>
+        <v>83036</v>
       </c>
       <c r="C58">
         <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="5">
+      <c r="A59">
         <v>3019</v>
       </c>
       <c r="B59">
+        <v>83016</v>
+      </c>
+      <c r="C59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>3020</v>
+      </c>
+      <c r="B60">
+        <v>83019</v>
+      </c>
+      <c r="C60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>3021</v>
+      </c>
+      <c r="B61">
+        <v>83004</v>
+      </c>
+      <c r="C61">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>3022</v>
+      </c>
+      <c r="B62">
+        <v>83007</v>
+      </c>
+      <c r="C62">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3023</v>
+      </c>
+      <c r="B63">
+        <v>83017</v>
+      </c>
+      <c r="C63">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>3024</v>
+      </c>
+      <c r="B64">
+        <v>83020</v>
+      </c>
+      <c r="C64">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>3025</v>
+      </c>
+      <c r="B65">
+        <v>83005</v>
+      </c>
+      <c r="C65">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>3026</v>
+      </c>
+      <c r="B66">
+        <v>83008</v>
+      </c>
+      <c r="C66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>3027</v>
+      </c>
+      <c r="B67">
+        <v>83018</v>
+      </c>
+      <c r="C67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>3028</v>
+      </c>
+      <c r="B68">
         <v>83021</v>
       </c>
-      <c r="C59">
+      <c r="C68">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>3029</v>
+      </c>
+      <c r="B69">
+        <v>83009</v>
+      </c>
+      <c r="C69">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>3030</v>
+      </c>
+      <c r="B70">
+        <v>83006</v>
+      </c>
+      <c r="C70">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>3101</v>
+      </c>
+      <c r="B71">
+        <v>83028</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>3102</v>
+      </c>
+      <c r="B72">
+        <v>83029</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>3103</v>
+      </c>
+      <c r="B73">
+        <v>83030</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>3104</v>
+      </c>
+      <c r="B74">
+        <v>83031</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>3105</v>
+      </c>
+      <c r="B75">
+        <v>83032</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>3106</v>
+      </c>
+      <c r="B76">
+        <v>83033</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>3107</v>
+      </c>
+      <c r="B77">
+        <v>83010</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3108</v>
+      </c>
+      <c r="B78">
+        <v>83012</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>3109</v>
+      </c>
+      <c r="B79">
+        <v>83011</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>3110</v>
+      </c>
+      <c r="B80">
+        <v>83013</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>3111</v>
+      </c>
+      <c r="B81">
+        <v>83015</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>3112</v>
+      </c>
+      <c r="B82">
+        <v>83014</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>3113</v>
+      </c>
+      <c r="B83">
+        <v>83001</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>3114</v>
+      </c>
+      <c r="B84">
+        <v>83003</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>3115</v>
+      </c>
+      <c r="B85">
+        <v>83002</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>3116</v>
+      </c>
+      <c r="B86">
+        <v>83034</v>
+      </c>
+      <c r="C86">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="5">
-        <v>3020</v>
-      </c>
-      <c r="B60">
-        <v>83009</v>
-      </c>
-      <c r="C60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A61" s="5">
-        <v>3021</v>
-      </c>
-      <c r="B61">
-        <v>83006</v>
-      </c>
-      <c r="C61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="5">
-        <v>3101</v>
-      </c>
-      <c r="B62">
-        <v>83010</v>
-      </c>
-      <c r="C62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A63" s="5">
-        <v>3102</v>
-      </c>
-      <c r="B63">
-        <v>83012</v>
-      </c>
-      <c r="C63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A64" s="5">
-        <v>3103</v>
-      </c>
-      <c r="B64">
-        <v>83011</v>
-      </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A65" s="5">
-        <v>3104</v>
-      </c>
-      <c r="B65">
-        <v>83013</v>
-      </c>
-      <c r="C65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A66" s="5">
-        <v>3105</v>
-      </c>
-      <c r="B66">
-        <v>83015</v>
-      </c>
-      <c r="C66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A67" s="5">
-        <v>3106</v>
-      </c>
-      <c r="B67">
-        <v>83014</v>
-      </c>
-      <c r="C67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A68" s="5">
-        <v>3107</v>
-      </c>
-      <c r="B68">
-        <v>83001</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A69" s="5">
-        <v>3108</v>
-      </c>
-      <c r="B69">
-        <v>83003</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A70" s="5">
-        <v>3109</v>
-      </c>
-      <c r="B70">
-        <v>83002</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A71" s="5">
-        <v>3110</v>
-      </c>
-      <c r="B71">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>3117</v>
+      </c>
+      <c r="B87">
+        <v>83035</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>3118</v>
+      </c>
+      <c r="B88">
+        <v>83036</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>3119</v>
+      </c>
+      <c r="B89">
         <v>83016</v>
       </c>
-      <c r="C71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A72" s="5">
-        <v>3111</v>
-      </c>
-      <c r="B72">
+      <c r="C89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>3120</v>
+      </c>
+      <c r="B90">
         <v>83019</v>
       </c>
-      <c r="C72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A73" s="5">
-        <v>3112</v>
-      </c>
-      <c r="B73">
+      <c r="C90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>3121</v>
+      </c>
+      <c r="B91">
         <v>83004</v>
       </c>
-      <c r="C73">
+      <c r="C91">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A74" s="5">
-        <v>3113</v>
-      </c>
-      <c r="B74">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>3122</v>
+      </c>
+      <c r="B92">
         <v>83007</v>
       </c>
-      <c r="C74">
+      <c r="C92">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A75" s="5">
-        <v>3114</v>
-      </c>
-      <c r="B75">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>3123</v>
+      </c>
+      <c r="B93">
         <v>83017</v>
       </c>
-      <c r="C75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A76" s="5">
-        <v>3115</v>
-      </c>
-      <c r="B76">
+      <c r="C93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>3124</v>
+      </c>
+      <c r="B94">
         <v>83020</v>
-      </c>
-      <c r="C76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A77" s="5">
-        <v>3116</v>
-      </c>
-      <c r="B77">
-        <v>83005</v>
-      </c>
-      <c r="C77">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A78" s="5">
-        <v>3117</v>
-      </c>
-      <c r="B78">
-        <v>83008</v>
-      </c>
-      <c r="C78">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A79" s="5">
-        <v>3118</v>
-      </c>
-      <c r="B79">
-        <v>83018</v>
-      </c>
-      <c r="C79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A80" s="5">
-        <v>3119</v>
-      </c>
-      <c r="B80">
-        <v>83021</v>
-      </c>
-      <c r="C80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A81" s="5">
-        <v>3120</v>
-      </c>
-      <c r="B81">
-        <v>83009</v>
-      </c>
-      <c r="C81">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" s="5">
-        <v>3121</v>
-      </c>
-      <c r="B82">
-        <v>83006</v>
-      </c>
-      <c r="C82">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A83" s="5">
-        <v>3201</v>
-      </c>
-      <c r="B83">
-        <v>83010</v>
-      </c>
-      <c r="C83">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A84" s="5">
-        <v>3202</v>
-      </c>
-      <c r="B84">
-        <v>83012</v>
-      </c>
-      <c r="C84">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A85" s="5">
-        <v>3203</v>
-      </c>
-      <c r="B85">
-        <v>83011</v>
-      </c>
-      <c r="C85">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A86" s="5">
-        <v>3204</v>
-      </c>
-      <c r="B86">
-        <v>83013</v>
-      </c>
-      <c r="C86">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A87" s="5">
-        <v>3205</v>
-      </c>
-      <c r="B87">
-        <v>83015</v>
-      </c>
-      <c r="C87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A88" s="5">
-        <v>3206</v>
-      </c>
-      <c r="B88">
-        <v>83014</v>
-      </c>
-      <c r="C88">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A89" s="5">
-        <v>3207</v>
-      </c>
-      <c r="B89">
-        <v>83001</v>
-      </c>
-      <c r="C89">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A90" s="5">
-        <v>3208</v>
-      </c>
-      <c r="B90">
-        <v>83003</v>
-      </c>
-      <c r="C90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A91" s="5">
-        <v>3209</v>
-      </c>
-      <c r="B91">
-        <v>83002</v>
-      </c>
-      <c r="C91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A92" s="5">
-        <v>3210</v>
-      </c>
-      <c r="B92">
-        <v>83016</v>
-      </c>
-      <c r="C92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A93" s="5">
-        <v>3211</v>
-      </c>
-      <c r="B93">
-        <v>83019</v>
-      </c>
-      <c r="C93">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A94" s="5">
-        <v>3212</v>
-      </c>
-      <c r="B94">
-        <v>83004</v>
       </c>
       <c r="C94">
         <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A95" s="5">
-        <v>3213</v>
+      <c r="A95">
+        <v>3125</v>
       </c>
       <c r="B95">
-        <v>83007</v>
+        <v>83005</v>
       </c>
       <c r="C95">
         <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A96" s="5">
-        <v>3214</v>
+      <c r="A96">
+        <v>3126</v>
       </c>
       <c r="B96">
-        <v>83017</v>
+        <v>83008</v>
       </c>
       <c r="C96">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A97" s="5">
-        <v>3215</v>
+      <c r="A97">
+        <v>3127</v>
       </c>
       <c r="B97">
-        <v>83020</v>
+        <v>83018</v>
       </c>
       <c r="C97">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A98" s="5">
-        <v>3216</v>
+      <c r="A98">
+        <v>3128</v>
       </c>
       <c r="B98">
-        <v>83005</v>
+        <v>83021</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A99" s="5">
-        <v>3217</v>
+      <c r="A99">
+        <v>3129</v>
       </c>
       <c r="B99">
-        <v>83008</v>
+        <v>83009</v>
       </c>
       <c r="C99">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" s="5">
-        <v>3218</v>
+      <c r="A100">
+        <v>3130</v>
       </c>
       <c r="B100">
-        <v>83018</v>
+        <v>83006</v>
       </c>
       <c r="C100">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A101" s="5">
-        <v>3219</v>
+      <c r="A101">
+        <v>3201</v>
       </c>
       <c r="B101">
-        <v>83021</v>
+        <v>83028</v>
       </c>
       <c r="C101">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A102" s="5">
-        <v>3220</v>
+      <c r="A102">
+        <v>3202</v>
       </c>
       <c r="B102">
-        <v>83009</v>
+        <v>83029</v>
       </c>
       <c r="C102">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A103" s="5">
-        <v>3221</v>
+      <c r="A103">
+        <v>3203</v>
       </c>
       <c r="B103">
-        <v>83006</v>
+        <v>83030</v>
       </c>
       <c r="C103">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A104" s="5">
-        <v>3301</v>
+      <c r="A104">
+        <v>3204</v>
       </c>
       <c r="B104">
+        <v>83031</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>3205</v>
+      </c>
+      <c r="B105">
+        <v>83032</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>3206</v>
+      </c>
+      <c r="B106">
+        <v>83033</v>
+      </c>
+      <c r="C106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>3207</v>
+      </c>
+      <c r="B107">
         <v>83010</v>
       </c>
-      <c r="C104">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A105" s="5">
-        <v>3302</v>
-      </c>
-      <c r="B105">
+      <c r="C107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>3208</v>
+      </c>
+      <c r="B108">
         <v>83012</v>
       </c>
-      <c r="C105">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A106" s="5">
-        <v>3303</v>
-      </c>
-      <c r="B106">
+      <c r="C108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>3209</v>
+      </c>
+      <c r="B109">
         <v>83011</v>
       </c>
-      <c r="C106">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A107" s="5">
-        <v>3304</v>
-      </c>
-      <c r="B107">
+      <c r="C109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>3210</v>
+      </c>
+      <c r="B110">
         <v>83013</v>
-      </c>
-      <c r="C107">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A108" s="5">
-        <v>3305</v>
-      </c>
-      <c r="B108">
-        <v>83015</v>
-      </c>
-      <c r="C108">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A109" s="5">
-        <v>3306</v>
-      </c>
-      <c r="B109">
-        <v>83014</v>
-      </c>
-      <c r="C109">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A110" s="5">
-        <v>3307</v>
-      </c>
-      <c r="B110">
-        <v>83001</v>
       </c>
       <c r="C110">
         <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A111" s="5">
-        <v>3308</v>
+      <c r="A111">
+        <v>3211</v>
       </c>
       <c r="B111">
+        <v>83015</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>3212</v>
+      </c>
+      <c r="B112">
+        <v>83014</v>
+      </c>
+      <c r="C112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>3213</v>
+      </c>
+      <c r="B113">
+        <v>83001</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>3214</v>
+      </c>
+      <c r="B114">
         <v>83003</v>
       </c>
-      <c r="C111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A112" s="5">
-        <v>3309</v>
-      </c>
-      <c r="B112">
+      <c r="C114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>3215</v>
+      </c>
+      <c r="B115">
         <v>83002</v>
       </c>
-      <c r="C112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A113" s="5">
-        <v>3310</v>
-      </c>
-      <c r="B113">
+      <c r="C115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>3216</v>
+      </c>
+      <c r="B116">
+        <v>83034</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>3217</v>
+      </c>
+      <c r="B117">
+        <v>83035</v>
+      </c>
+      <c r="C117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>3218</v>
+      </c>
+      <c r="B118">
+        <v>83036</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>3219</v>
+      </c>
+      <c r="B119">
         <v>83016</v>
-      </c>
-      <c r="C113">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A114" s="5">
-        <v>3311</v>
-      </c>
-      <c r="B114">
-        <v>83019</v>
-      </c>
-      <c r="C114">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A115" s="5">
-        <v>3312</v>
-      </c>
-      <c r="B115">
-        <v>83004</v>
-      </c>
-      <c r="C115">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A116" s="5">
-        <v>3313</v>
-      </c>
-      <c r="B116">
-        <v>83007</v>
-      </c>
-      <c r="C116">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A117" s="5">
-        <v>3314</v>
-      </c>
-      <c r="B117">
-        <v>83017</v>
-      </c>
-      <c r="C117">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A118" s="5">
-        <v>3315</v>
-      </c>
-      <c r="B118">
-        <v>83020</v>
-      </c>
-      <c r="C118">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A119" s="5">
-        <v>3316</v>
-      </c>
-      <c r="B119">
-        <v>83005</v>
       </c>
       <c r="C119">
         <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A120" s="5">
-        <v>3317</v>
+      <c r="A120">
+        <v>3220</v>
       </c>
       <c r="B120">
-        <v>83008</v>
+        <v>83019</v>
       </c>
       <c r="C120">
         <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A121" s="5">
-        <v>3318</v>
+      <c r="A121">
+        <v>3221</v>
       </c>
       <c r="B121">
-        <v>83018</v>
+        <v>83004</v>
       </c>
       <c r="C121">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A122" s="5">
-        <v>3319</v>
+      <c r="A122">
+        <v>3222</v>
       </c>
       <c r="B122">
-        <v>83021</v>
+        <v>83007</v>
       </c>
       <c r="C122">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A123" s="5">
-        <v>3320</v>
+      <c r="A123">
+        <v>3223</v>
       </c>
       <c r="B123">
-        <v>83009</v>
+        <v>83017</v>
       </c>
       <c r="C123">
         <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A124" s="5">
-        <v>3321</v>
+      <c r="A124">
+        <v>3224</v>
       </c>
       <c r="B124">
-        <v>83006</v>
+        <v>83020</v>
       </c>
       <c r="C124">
         <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A125" s="5">
-        <v>3401</v>
+      <c r="A125">
+        <v>3225</v>
       </c>
       <c r="B125">
-        <v>83010</v>
+        <v>83005</v>
       </c>
       <c r="C125">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A126" s="5">
-        <v>3402</v>
+      <c r="A126">
+        <v>3226</v>
       </c>
       <c r="B126">
-        <v>83012</v>
+        <v>83008</v>
       </c>
       <c r="C126">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A127" s="5">
-        <v>3403</v>
+      <c r="A127">
+        <v>3227</v>
       </c>
       <c r="B127">
-        <v>83011</v>
+        <v>83018</v>
       </c>
       <c r="C127">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A128" s="5">
-        <v>3404</v>
+      <c r="A128">
+        <v>3228</v>
       </c>
       <c r="B128">
-        <v>83013</v>
+        <v>83021</v>
       </c>
       <c r="C128">
         <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A129" s="5">
-        <v>3405</v>
+      <c r="A129">
+        <v>3229</v>
       </c>
       <c r="B129">
-        <v>83015</v>
+        <v>83009</v>
       </c>
       <c r="C129">
         <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A130" s="5">
-        <v>3406</v>
+      <c r="A130">
+        <v>3230</v>
       </c>
       <c r="B130">
-        <v>83014</v>
+        <v>83006</v>
       </c>
       <c r="C130">
         <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A131" s="5">
-        <v>3407</v>
+      <c r="A131">
+        <v>3301</v>
       </c>
       <c r="B131">
+        <v>83028</v>
+      </c>
+      <c r="C131">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>3302</v>
+      </c>
+      <c r="B132">
+        <v>83029</v>
+      </c>
+      <c r="C132">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>3303</v>
+      </c>
+      <c r="B133">
+        <v>83030</v>
+      </c>
+      <c r="C133">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>3304</v>
+      </c>
+      <c r="B134">
+        <v>83031</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>3305</v>
+      </c>
+      <c r="B135">
+        <v>83032</v>
+      </c>
+      <c r="C135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>3306</v>
+      </c>
+      <c r="B136">
+        <v>83033</v>
+      </c>
+      <c r="C136">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>3307</v>
+      </c>
+      <c r="B137">
+        <v>83010</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>3308</v>
+      </c>
+      <c r="B138">
+        <v>83012</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>3309</v>
+      </c>
+      <c r="B139">
+        <v>83011</v>
+      </c>
+      <c r="C139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>3310</v>
+      </c>
+      <c r="B140">
+        <v>83013</v>
+      </c>
+      <c r="C140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>3311</v>
+      </c>
+      <c r="B141">
+        <v>83015</v>
+      </c>
+      <c r="C141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>3312</v>
+      </c>
+      <c r="B142">
+        <v>83014</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>3313</v>
+      </c>
+      <c r="B143">
         <v>83001</v>
       </c>
-      <c r="C131">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A132" s="5">
-        <v>3408</v>
-      </c>
-      <c r="B132">
+      <c r="C143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>3314</v>
+      </c>
+      <c r="B144">
         <v>83003</v>
       </c>
-      <c r="C132">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A133" s="5">
-        <v>3409</v>
-      </c>
-      <c r="B133">
+      <c r="C144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>3315</v>
+      </c>
+      <c r="B145">
         <v>83002</v>
       </c>
-      <c r="C133">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A134" s="5">
-        <v>3410</v>
-      </c>
-      <c r="B134">
+      <c r="C145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>3316</v>
+      </c>
+      <c r="B146">
+        <v>83034</v>
+      </c>
+      <c r="C146">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>3317</v>
+      </c>
+      <c r="B147">
+        <v>83035</v>
+      </c>
+      <c r="C147">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>3318</v>
+      </c>
+      <c r="B148">
+        <v>83036</v>
+      </c>
+      <c r="C148">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>3319</v>
+      </c>
+      <c r="B149">
         <v>83016</v>
       </c>
-      <c r="C134">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A135" s="5">
-        <v>3411</v>
-      </c>
-      <c r="B135">
+      <c r="C149">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>3320</v>
+      </c>
+      <c r="B150">
         <v>83019</v>
       </c>
-      <c r="C135">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A136" s="5">
-        <v>3412</v>
-      </c>
-      <c r="B136">
+      <c r="C150">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>3321</v>
+      </c>
+      <c r="B151">
         <v>83004</v>
       </c>
-      <c r="C136">
+      <c r="C151">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>3322</v>
+      </c>
+      <c r="B152">
+        <v>83007</v>
+      </c>
+      <c r="C152">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>3323</v>
+      </c>
+      <c r="B153">
+        <v>83017</v>
+      </c>
+      <c r="C153">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>3324</v>
+      </c>
+      <c r="B154">
+        <v>83020</v>
+      </c>
+      <c r="C154">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>3325</v>
+      </c>
+      <c r="B155">
+        <v>83005</v>
+      </c>
+      <c r="C155">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>3326</v>
+      </c>
+      <c r="B156">
+        <v>83008</v>
+      </c>
+      <c r="C156">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>3327</v>
+      </c>
+      <c r="B157">
+        <v>83018</v>
+      </c>
+      <c r="C157">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>3328</v>
+      </c>
+      <c r="B158">
+        <v>83021</v>
+      </c>
+      <c r="C158">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>3329</v>
+      </c>
+      <c r="B159">
+        <v>83009</v>
+      </c>
+      <c r="C159">
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A137" s="5">
-        <v>3413</v>
-      </c>
-      <c r="B137">
-        <v>83007</v>
-      </c>
-      <c r="C137">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>3330</v>
+      </c>
+      <c r="B160">
+        <v>83006</v>
+      </c>
+      <c r="C160">
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A138" s="5">
-        <v>3414</v>
-      </c>
-      <c r="B138">
-        <v>83017</v>
-      </c>
-      <c r="C138">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A139" s="5">
-        <v>3415</v>
-      </c>
-      <c r="B139">
-        <v>83020</v>
-      </c>
-      <c r="C139">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A140" s="5">
-        <v>3416</v>
-      </c>
-      <c r="B140">
-        <v>83005</v>
-      </c>
-      <c r="C140">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A141" s="5">
-        <v>3417</v>
-      </c>
-      <c r="B141">
-        <v>83008</v>
-      </c>
-      <c r="C141">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A142" s="5">
-        <v>3418</v>
-      </c>
-      <c r="B142">
-        <v>83018</v>
-      </c>
-      <c r="C142">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A143" s="5">
-        <v>3419</v>
-      </c>
-      <c r="B143">
-        <v>83021</v>
-      </c>
-      <c r="C143">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A144" s="5">
-        <v>3420</v>
-      </c>
-      <c r="B144">
-        <v>83009</v>
-      </c>
-      <c r="C144">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A145" s="5">
-        <v>3421</v>
-      </c>
-      <c r="B145">
-        <v>83006</v>
-      </c>
-      <c r="C145">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A146" s="5">
-        <v>3501</v>
-      </c>
-      <c r="B146">
-        <v>83010</v>
-      </c>
-      <c r="C146">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A147" s="5">
-        <v>3502</v>
-      </c>
-      <c r="B147">
-        <v>83012</v>
-      </c>
-      <c r="C147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A148" s="5">
-        <v>3503</v>
-      </c>
-      <c r="B148">
-        <v>83011</v>
-      </c>
-      <c r="C148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A149" s="5">
-        <v>3504</v>
-      </c>
-      <c r="B149">
-        <v>83013</v>
-      </c>
-      <c r="C149">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>3401</v>
+      </c>
+      <c r="B161">
+        <v>83028</v>
+      </c>
+      <c r="C161">
         <v>50</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A150" s="5">
-        <v>3505</v>
-      </c>
-      <c r="B150">
-        <v>83015</v>
-      </c>
-      <c r="C150">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>3402</v>
+      </c>
+      <c r="B162">
+        <v>83029</v>
+      </c>
+      <c r="C162">
         <v>50</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A151" s="5">
-        <v>3506</v>
-      </c>
-      <c r="B151">
-        <v>83014</v>
-      </c>
-      <c r="C151">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A152" s="5">
-        <v>3507</v>
-      </c>
-      <c r="B152">
-        <v>83001</v>
-      </c>
-      <c r="C152">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A153" s="5">
-        <v>3508</v>
-      </c>
-      <c r="B153">
-        <v>83003</v>
-      </c>
-      <c r="C153">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A154" s="5">
-        <v>3509</v>
-      </c>
-      <c r="B154">
-        <v>83002</v>
-      </c>
-      <c r="C154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A155" s="5">
-        <v>3510</v>
-      </c>
-      <c r="B155">
-        <v>83016</v>
-      </c>
-      <c r="C155">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A156" s="5">
-        <v>3511</v>
-      </c>
-      <c r="B156">
-        <v>83019</v>
-      </c>
-      <c r="C156">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A157" s="5">
-        <v>3512</v>
-      </c>
-      <c r="B157">
-        <v>83004</v>
-      </c>
-      <c r="C157">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A158" s="5">
-        <v>3513</v>
-      </c>
-      <c r="B158">
-        <v>83007</v>
-      </c>
-      <c r="C158">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A159" s="5">
-        <v>3514</v>
-      </c>
-      <c r="B159">
-        <v>83017</v>
-      </c>
-      <c r="C159">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A160" s="5">
-        <v>3515</v>
-      </c>
-      <c r="B160">
-        <v>83020</v>
-      </c>
-      <c r="C160">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A161" s="5">
-        <v>3516</v>
-      </c>
-      <c r="B161">
-        <v>83005</v>
-      </c>
-      <c r="C161">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A162" s="5">
-        <v>3517</v>
-      </c>
-      <c r="B162">
-        <v>83008</v>
-      </c>
-      <c r="C162">
-        <v>30</v>
-      </c>
-    </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A163" s="5">
-        <v>3518</v>
+      <c r="A163">
+        <v>3403</v>
       </c>
       <c r="B163">
-        <v>83018</v>
+        <v>83030</v>
       </c>
       <c r="C163">
         <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A164" s="5">
-        <v>3519</v>
+      <c r="A164">
+        <v>3404</v>
       </c>
       <c r="B164">
-        <v>83021</v>
+        <v>83031</v>
       </c>
       <c r="C164">
         <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A165" s="5">
-        <v>3520</v>
+      <c r="A165">
+        <v>3405</v>
       </c>
       <c r="B165">
-        <v>83009</v>
+        <v>83032</v>
       </c>
       <c r="C165">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A166" s="5">
-        <v>3521</v>
+      <c r="A166">
+        <v>3406</v>
       </c>
       <c r="B166">
-        <v>83006</v>
+        <v>83033</v>
       </c>
       <c r="C166">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A167" s="5">
-        <v>3601</v>
+      <c r="A167">
+        <v>3407</v>
       </c>
       <c r="B167">
         <v>83010</v>
       </c>
       <c r="C167">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A168" s="5">
-        <v>3602</v>
+      <c r="A168">
+        <v>3408</v>
       </c>
       <c r="B168">
         <v>83012</v>
       </c>
       <c r="C168">
-        <v>200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A169" s="5">
-        <v>3603</v>
+      <c r="A169">
+        <v>3409</v>
       </c>
       <c r="B169">
         <v>83011</v>
       </c>
       <c r="C169">
-        <v>200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A170" s="5">
-        <v>3604</v>
+      <c r="A170">
+        <v>3410</v>
       </c>
       <c r="B170">
         <v>83013</v>
       </c>
       <c r="C170">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A171" s="5">
-        <v>3605</v>
+      <c r="A171">
+        <v>3411</v>
       </c>
       <c r="B171">
         <v>83015</v>
       </c>
       <c r="C171">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A172" s="5">
-        <v>3606</v>
+      <c r="A172">
+        <v>3412</v>
       </c>
       <c r="B172">
         <v>83014</v>
       </c>
       <c r="C172">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A173" s="5">
-        <v>3607</v>
+      <c r="A173">
+        <v>3413</v>
       </c>
       <c r="B173">
         <v>83001</v>
       </c>
       <c r="C173">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A174" s="5">
-        <v>3608</v>
+      <c r="A174">
+        <v>3414</v>
       </c>
       <c r="B174">
         <v>83003</v>
       </c>
       <c r="C174">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A175" s="5">
-        <v>3609</v>
+      <c r="A175">
+        <v>3415</v>
       </c>
       <c r="B175">
         <v>83002</v>
       </c>
       <c r="C175">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A176" s="5">
-        <v>3701</v>
+      <c r="A176">
+        <v>3416</v>
       </c>
       <c r="B176">
-        <v>83010</v>
+        <v>83034</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177" s="5">
-        <v>3702</v>
+      <c r="A177">
+        <v>3417</v>
       </c>
       <c r="B177">
-        <v>83012</v>
+        <v>83035</v>
       </c>
       <c r="C177">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" s="5">
-        <v>3703</v>
+      <c r="A178">
+        <v>3418</v>
       </c>
       <c r="B178">
-        <v>83011</v>
+        <v>83036</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" s="5">
-        <v>3704</v>
+      <c r="A179">
+        <v>3419</v>
       </c>
       <c r="B179">
-        <v>83013</v>
+        <v>83016</v>
       </c>
       <c r="C179">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" s="5">
-        <v>3705</v>
+      <c r="A180">
+        <v>3420</v>
       </c>
       <c r="B180">
-        <v>83015</v>
+        <v>83019</v>
       </c>
       <c r="C180">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" s="5">
-        <v>3706</v>
+      <c r="A181">
+        <v>3421</v>
       </c>
       <c r="B181">
-        <v>83014</v>
+        <v>83004</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A182" s="5">
-        <v>3707</v>
+      <c r="A182">
+        <v>3422</v>
       </c>
       <c r="B182">
-        <v>83001</v>
+        <v>83007</v>
       </c>
       <c r="C182">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A183" s="5">
-        <v>3708</v>
+      <c r="A183">
+        <v>3423</v>
       </c>
       <c r="B183">
-        <v>83003</v>
+        <v>83017</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A184" s="5">
-        <v>3709</v>
+      <c r="A184">
+        <v>3424</v>
       </c>
       <c r="B184">
-        <v>83002</v>
+        <v>83020</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A185" s="5">
-        <v>3710</v>
+      <c r="A185">
+        <v>3425</v>
       </c>
       <c r="B185">
-        <v>83016</v>
+        <v>83005</v>
       </c>
       <c r="C185">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A186" s="5">
-        <v>3711</v>
+      <c r="A186">
+        <v>3426</v>
       </c>
       <c r="B186">
-        <v>83019</v>
+        <v>83008</v>
       </c>
       <c r="C186">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A187" s="5">
-        <v>3712</v>
+      <c r="A187">
+        <v>3427</v>
       </c>
       <c r="B187">
-        <v>83004</v>
+        <v>83018</v>
       </c>
       <c r="C187">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A188" s="5">
-        <v>3713</v>
+      <c r="A188">
+        <v>3428</v>
       </c>
       <c r="B188">
-        <v>83007</v>
+        <v>83021</v>
       </c>
       <c r="C188">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A189" s="5">
-        <v>3714</v>
+      <c r="A189">
+        <v>3429</v>
       </c>
       <c r="B189">
-        <v>83017</v>
+        <v>83009</v>
       </c>
       <c r="C189">
-        <v>200</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A190" s="5">
-        <v>3715</v>
+      <c r="A190">
+        <v>3430</v>
       </c>
       <c r="B190">
-        <v>83020</v>
+        <v>83006</v>
       </c>
       <c r="C190">
-        <v>200</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A191" s="5">
-        <v>3716</v>
+      <c r="A191">
+        <v>3501</v>
       </c>
       <c r="B191">
-        <v>83005</v>
+        <v>83028</v>
       </c>
       <c r="C191">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A192" s="5">
-        <v>3717</v>
+      <c r="A192">
+        <v>3502</v>
       </c>
       <c r="B192">
-        <v>83008</v>
+        <v>83029</v>
       </c>
       <c r="C192">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A193" s="5">
-        <v>3718</v>
+      <c r="A193">
+        <v>3503</v>
       </c>
       <c r="B193">
-        <v>83018</v>
+        <v>83030</v>
       </c>
       <c r="C193">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A194" s="5">
-        <v>3719</v>
+      <c r="A194">
+        <v>3504</v>
       </c>
       <c r="B194">
-        <v>83021</v>
+        <v>83031</v>
       </c>
       <c r="C194">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A195" s="5">
-        <v>3720</v>
+      <c r="A195">
+        <v>3505</v>
       </c>
       <c r="B195">
-        <v>83009</v>
+        <v>83032</v>
       </c>
       <c r="C195">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A196" s="5">
-        <v>3721</v>
+      <c r="A196">
+        <v>3506</v>
       </c>
       <c r="B196">
-        <v>83006</v>
+        <v>83033</v>
       </c>
       <c r="C196">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A197" s="4">
-        <v>3801</v>
+      <c r="A197">
+        <v>3507</v>
       </c>
       <c r="B197">
         <v>83010</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A198" s="4">
-        <v>3802</v>
+      <c r="A198">
+        <v>3508</v>
       </c>
       <c r="B198">
         <v>83012</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A199" s="4">
-        <v>3803</v>
+      <c r="A199">
+        <v>3509</v>
       </c>
       <c r="B199">
         <v>83011</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A200" s="4">
-        <v>3804</v>
+      <c r="A200">
+        <v>3510</v>
       </c>
       <c r="B200">
         <v>83013</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A201" s="4">
-        <v>3805</v>
+      <c r="A201">
+        <v>3511</v>
       </c>
       <c r="B201">
         <v>83015</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A202" s="4">
-        <v>3806</v>
+      <c r="A202">
+        <v>3512</v>
       </c>
       <c r="B202">
         <v>83014</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A203" s="4">
-        <v>3807</v>
+      <c r="A203">
+        <v>3513</v>
       </c>
       <c r="B203">
         <v>83001</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A204" s="4">
-        <v>3808</v>
+      <c r="A204">
+        <v>3514</v>
       </c>
       <c r="B204">
         <v>83003</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A205" s="4">
-        <v>3809</v>
+      <c r="A205">
+        <v>3515</v>
       </c>
       <c r="B205">
         <v>83002</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A206" s="4">
+      <c r="A206">
+        <v>3516</v>
+      </c>
+      <c r="B206">
+        <v>83034</v>
+      </c>
+      <c r="C206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>3517</v>
+      </c>
+      <c r="B207">
+        <v>83035</v>
+      </c>
+      <c r="C207">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>3518</v>
+      </c>
+      <c r="B208">
+        <v>83036</v>
+      </c>
+      <c r="C208">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>3519</v>
+      </c>
+      <c r="B209">
+        <v>83016</v>
+      </c>
+      <c r="C209">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>3520</v>
+      </c>
+      <c r="B210">
+        <v>83019</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>3521</v>
+      </c>
+      <c r="B211">
+        <v>83004</v>
+      </c>
+      <c r="C211">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>3522</v>
+      </c>
+      <c r="B212">
+        <v>83007</v>
+      </c>
+      <c r="C212">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>3523</v>
+      </c>
+      <c r="B213">
+        <v>83017</v>
+      </c>
+      <c r="C213">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>3524</v>
+      </c>
+      <c r="B214">
+        <v>83020</v>
+      </c>
+      <c r="C214">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>3525</v>
+      </c>
+      <c r="B215">
+        <v>83005</v>
+      </c>
+      <c r="C215">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>3526</v>
+      </c>
+      <c r="B216">
+        <v>83008</v>
+      </c>
+      <c r="C216">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>3527</v>
+      </c>
+      <c r="B217">
+        <v>83018</v>
+      </c>
+      <c r="C217">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>3528</v>
+      </c>
+      <c r="B218">
+        <v>83021</v>
+      </c>
+      <c r="C218">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>3529</v>
+      </c>
+      <c r="B219">
+        <v>83009</v>
+      </c>
+      <c r="C219">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>3530</v>
+      </c>
+      <c r="B220">
+        <v>83006</v>
+      </c>
+      <c r="C220">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>3601</v>
+      </c>
+      <c r="B221">
+        <v>83028</v>
+      </c>
+      <c r="C221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>3602</v>
+      </c>
+      <c r="B222">
+        <v>83029</v>
+      </c>
+      <c r="C222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>3603</v>
+      </c>
+      <c r="B223">
+        <v>83030</v>
+      </c>
+      <c r="C223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>3604</v>
+      </c>
+      <c r="B224">
+        <v>83031</v>
+      </c>
+      <c r="C224">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>3605</v>
+      </c>
+      <c r="B225">
+        <v>83032</v>
+      </c>
+      <c r="C225">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>3606</v>
+      </c>
+      <c r="B226">
+        <v>83033</v>
+      </c>
+      <c r="C226">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>3607</v>
+      </c>
+      <c r="B227">
+        <v>83010</v>
+      </c>
+      <c r="C227">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>3608</v>
+      </c>
+      <c r="B228">
+        <v>83012</v>
+      </c>
+      <c r="C228">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>3609</v>
+      </c>
+      <c r="B229">
+        <v>83011</v>
+      </c>
+      <c r="C229">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>3610</v>
+      </c>
+      <c r="B230">
+        <v>83013</v>
+      </c>
+      <c r="C230">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>3611</v>
+      </c>
+      <c r="B231">
+        <v>83015</v>
+      </c>
+      <c r="C231">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>3612</v>
+      </c>
+      <c r="B232">
+        <v>83014</v>
+      </c>
+      <c r="C232">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>3613</v>
+      </c>
+      <c r="B233">
+        <v>83001</v>
+      </c>
+      <c r="C233">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>3614</v>
+      </c>
+      <c r="B234">
+        <v>83003</v>
+      </c>
+      <c r="C234">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>3615</v>
+      </c>
+      <c r="B235">
+        <v>83002</v>
+      </c>
+      <c r="C235">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>3701</v>
+      </c>
+      <c r="B236">
+        <v>83028</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>3702</v>
+      </c>
+      <c r="B237">
+        <v>83029</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>3703</v>
+      </c>
+      <c r="B238">
+        <v>83030</v>
+      </c>
+      <c r="C238">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>3704</v>
+      </c>
+      <c r="B239">
+        <v>83031</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>3705</v>
+      </c>
+      <c r="B240">
+        <v>83032</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>3706</v>
+      </c>
+      <c r="B241">
+        <v>83033</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>3707</v>
+      </c>
+      <c r="B242">
+        <v>83010</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>3708</v>
+      </c>
+      <c r="B243">
+        <v>83012</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>3709</v>
+      </c>
+      <c r="B244">
+        <v>83011</v>
+      </c>
+      <c r="C244">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>3710</v>
+      </c>
+      <c r="B245">
+        <v>83013</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>3711</v>
+      </c>
+      <c r="B246">
+        <v>83015</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>3712</v>
+      </c>
+      <c r="B247">
+        <v>83014</v>
+      </c>
+      <c r="C247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>3713</v>
+      </c>
+      <c r="B248">
+        <v>83001</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>3714</v>
+      </c>
+      <c r="B249">
+        <v>83003</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>3715</v>
+      </c>
+      <c r="B250">
+        <v>83002</v>
+      </c>
+      <c r="C250">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>3716</v>
+      </c>
+      <c r="B251">
+        <v>83034</v>
+      </c>
+      <c r="C251">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>3717</v>
+      </c>
+      <c r="B252">
+        <v>83035</v>
+      </c>
+      <c r="C252">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>3718</v>
+      </c>
+      <c r="B253">
+        <v>83036</v>
+      </c>
+      <c r="C253">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A254">
+        <v>3719</v>
+      </c>
+      <c r="B254">
+        <v>83016</v>
+      </c>
+      <c r="C254">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A255">
+        <v>3720</v>
+      </c>
+      <c r="B255">
+        <v>83019</v>
+      </c>
+      <c r="C255">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>3721</v>
+      </c>
+      <c r="B256">
+        <v>83004</v>
+      </c>
+      <c r="C256">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>3722</v>
+      </c>
+      <c r="B257">
+        <v>83007</v>
+      </c>
+      <c r="C257">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>3723</v>
+      </c>
+      <c r="B258">
+        <v>83017</v>
+      </c>
+      <c r="C258">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>3724</v>
+      </c>
+      <c r="B259">
+        <v>83020</v>
+      </c>
+      <c r="C259">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>3725</v>
+      </c>
+      <c r="B260">
+        <v>83005</v>
+      </c>
+      <c r="C260">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>3726</v>
+      </c>
+      <c r="B261">
+        <v>83008</v>
+      </c>
+      <c r="C261">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>3727</v>
+      </c>
+      <c r="B262">
+        <v>83018</v>
+      </c>
+      <c r="C262">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>3728</v>
+      </c>
+      <c r="B263">
+        <v>83021</v>
+      </c>
+      <c r="C263">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>3729</v>
+      </c>
+      <c r="B264">
+        <v>83009</v>
+      </c>
+      <c r="C264">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>3730</v>
+      </c>
+      <c r="B265">
+        <v>83006</v>
+      </c>
+      <c r="C265">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>3801</v>
+      </c>
+      <c r="B266">
+        <v>83028</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>3802</v>
+      </c>
+      <c r="B267">
+        <v>83029</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>3803</v>
+      </c>
+      <c r="B268">
+        <v>83030</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>3804</v>
+      </c>
+      <c r="B269">
+        <v>83031</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>3805</v>
+      </c>
+      <c r="B270">
+        <v>83032</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>3806</v>
+      </c>
+      <c r="B271">
+        <v>83033</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>3807</v>
+      </c>
+      <c r="B272">
+        <v>83010</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>3808</v>
+      </c>
+      <c r="B273">
+        <v>83012</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>3809</v>
+      </c>
+      <c r="B274">
+        <v>83011</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A275">
         <v>3810</v>
       </c>
-      <c r="B206">
+      <c r="B275">
+        <v>83013</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>3811</v>
+      </c>
+      <c r="B276">
+        <v>83015</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>3812</v>
+      </c>
+      <c r="B277">
+        <v>83014</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>3813</v>
+      </c>
+      <c r="B278">
+        <v>83001</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>3814</v>
+      </c>
+      <c r="B279">
+        <v>83003</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>3815</v>
+      </c>
+      <c r="B280">
+        <v>83002</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>3816</v>
+      </c>
+      <c r="B281">
+        <v>83034</v>
+      </c>
+      <c r="C281">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>3817</v>
+      </c>
+      <c r="B282">
+        <v>83035</v>
+      </c>
+      <c r="C282">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>3818</v>
+      </c>
+      <c r="B283">
+        <v>83036</v>
+      </c>
+      <c r="C283">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>3819</v>
+      </c>
+      <c r="B284">
         <v>83016</v>
       </c>
-      <c r="C206">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A207" s="4">
-        <v>3811</v>
-      </c>
-      <c r="B207">
+      <c r="C284">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>3820</v>
+      </c>
+      <c r="B285">
         <v>83019</v>
       </c>
-      <c r="C207">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A208" s="4">
-        <v>3812</v>
-      </c>
-      <c r="B208">
+      <c r="C285">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>3821</v>
+      </c>
+      <c r="B286">
         <v>83004</v>
       </c>
-      <c r="C208">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A209" s="4">
-        <v>3813</v>
-      </c>
-      <c r="B209">
+      <c r="C286">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>3822</v>
+      </c>
+      <c r="B287">
         <v>83007</v>
       </c>
-      <c r="C209">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A210" s="4">
-        <v>3814</v>
-      </c>
-      <c r="B210">
+      <c r="C287">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>3823</v>
+      </c>
+      <c r="B288">
         <v>83017</v>
       </c>
-      <c r="C210">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A211" s="4">
-        <v>3815</v>
-      </c>
-      <c r="B211">
+      <c r="C288">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>3824</v>
+      </c>
+      <c r="B289">
         <v>83020</v>
       </c>
-      <c r="C211">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A212" s="4">
-        <v>3816</v>
-      </c>
-      <c r="B212">
+      <c r="C289">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>3825</v>
+      </c>
+      <c r="B290">
         <v>83005</v>
       </c>
-      <c r="C212">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A213" s="4">
-        <v>3817</v>
-      </c>
-      <c r="B213">
+      <c r="C290">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>3826</v>
+      </c>
+      <c r="B291">
         <v>83008</v>
       </c>
-      <c r="C213">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A214" s="4">
-        <v>3818</v>
-      </c>
-      <c r="B214">
+      <c r="C291">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>3827</v>
+      </c>
+      <c r="B292">
         <v>83018</v>
       </c>
-      <c r="C214">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A215" s="4">
-        <v>3819</v>
-      </c>
-      <c r="B215">
+      <c r="C292">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>3828</v>
+      </c>
+      <c r="B293">
         <v>83021</v>
       </c>
-      <c r="C215">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A216" s="4">
-        <v>3820</v>
-      </c>
-      <c r="B216">
+      <c r="C293">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>3829</v>
+      </c>
+      <c r="B294">
         <v>83009</v>
       </c>
-      <c r="C216">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A217" s="4">
-        <v>3821</v>
-      </c>
-      <c r="B217">
+      <c r="C294">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>3830</v>
+      </c>
+      <c r="B295">
         <v>83006</v>
       </c>
-      <c r="C217">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A218" s="4">
-        <v>3822</v>
-      </c>
-      <c r="B218">
+      <c r="C295">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>3831</v>
+      </c>
+      <c r="B296">
         <v>83022</v>
       </c>
-      <c r="C218">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A219" s="4">
-        <v>3823</v>
-      </c>
-      <c r="B219">
+      <c r="C296">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>3832</v>
+      </c>
+      <c r="B297">
         <v>83023</v>
       </c>
-      <c r="C219">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A220" s="4">
-        <v>3824</v>
-      </c>
-      <c r="B220">
+      <c r="C297">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>3833</v>
+      </c>
+      <c r="B298">
+        <v>83025</v>
+      </c>
+      <c r="C298">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>3834</v>
+      </c>
+      <c r="B299">
         <v>83024</v>
       </c>
-      <c r="C220">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A221" s="4">
-        <v>3825</v>
-      </c>
-      <c r="B221">
-        <v>83025</v>
-      </c>
-      <c r="C221">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A222" s="4">
-        <v>3826</v>
-      </c>
-      <c r="B222">
+      <c r="C299">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>3835</v>
+      </c>
+      <c r="B300">
         <v>83026</v>
       </c>
-      <c r="C222">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A223" s="4">
-        <v>3827</v>
-      </c>
-      <c r="B223">
+      <c r="C300">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>3836</v>
+      </c>
+      <c r="B301">
         <v>83027</v>
       </c>
-      <c r="C223">
-        <v>145</v>
+      <c r="C301">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/RouletteCell.xlsx
+++ b/Config/Excel/RouletteCell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B1A7E-87EA-419E-BF79-FFED296C75D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7BD75-F8BA-466E-A235-06D503CE2AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C345574-353B-4353-B76D-7848D453018E}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="C2" sqref="C2:C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -539,7 +539,7 @@
         <v>50003</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -550,7 +550,7 @@
         <v>50006</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -561,7 +561,7 @@
         <v>50009</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -572,7 +572,7 @@
         <v>50012</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -583,7 +583,7 @@
         <v>50015</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -594,7 +594,7 @@
         <v>60001</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -605,7 +605,7 @@
         <v>60002</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -616,7 +616,7 @@
         <v>60003</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -627,7 +627,7 @@
         <v>60004</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -638,7 +638,7 @@
         <v>60005</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -649,7 +649,7 @@
         <v>60006</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -660,7 +660,7 @@
         <v>60007</v>
       </c>
       <c r="C13">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -671,7 +671,7 @@
         <v>60008</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -682,7 +682,7 @@
         <v>60009</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -693,7 +693,7 @@
         <v>60010</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -704,7 +704,7 @@
         <v>80003</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -715,7 +715,7 @@
         <v>80006</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -726,7 +726,7 @@
         <v>80009</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -737,7 +737,7 @@
         <v>80012</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -748,7 +748,7 @@
         <v>80015</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -759,7 +759,7 @@
         <v>80016</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -770,7 +770,7 @@
         <v>80017</v>
       </c>
       <c r="C23">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -781,7 +781,7 @@
         <v>80018</v>
       </c>
       <c r="C24">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -792,7 +792,7 @@
         <v>80019</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -803,7 +803,7 @@
         <v>80020</v>
       </c>
       <c r="C26">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -814,7 +814,7 @@
         <v>80021</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -825,7 +825,7 @@
         <v>80022</v>
       </c>
       <c r="C28">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -836,7 +836,7 @@
         <v>80023</v>
       </c>
       <c r="C29">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -847,7 +847,7 @@
         <v>80024</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -858,7 +858,7 @@
         <v>80025</v>
       </c>
       <c r="C31">
-        <v>85</v>
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -869,7 +869,7 @@
         <v>81003</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -880,7 +880,7 @@
         <v>81006</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -891,7 +891,7 @@
         <v>81009</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -902,7 +902,7 @@
         <v>81010</v>
       </c>
       <c r="C35">
-        <v>140</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -913,7 +913,7 @@
         <v>81011</v>
       </c>
       <c r="C36">
-        <v>140</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -924,7 +924,7 @@
         <v>81012</v>
       </c>
       <c r="C37">
-        <v>140</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -935,7 +935,7 @@
         <v>81013</v>
       </c>
       <c r="C38">
-        <v>140</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -946,7 +946,7 @@
         <v>81014</v>
       </c>
       <c r="C39">
-        <v>140</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -957,7 +957,7 @@
         <v>81015</v>
       </c>
       <c r="C40">
-        <v>140</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -968,7 +968,7 @@
         <v>83028</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -979,7 +979,7 @@
         <v>83029</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -990,7 +990,7 @@
         <v>83030</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -1001,7 +1001,7 @@
         <v>83031</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -1012,7 +1012,7 @@
         <v>83032</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -1023,7 +1023,7 @@
         <v>83033</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -1034,7 +1034,7 @@
         <v>83010</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -1045,7 +1045,7 @@
         <v>83012</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -1056,7 +1056,7 @@
         <v>83011</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -1067,7 +1067,7 @@
         <v>83013</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -1078,7 +1078,7 @@
         <v>83015</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -1089,7 +1089,7 @@
         <v>83014</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -1100,7 +1100,7 @@
         <v>83001</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -1111,7 +1111,7 @@
         <v>83003</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -1122,7 +1122,7 @@
         <v>83002</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -1133,7 +1133,7 @@
         <v>83034</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -1144,7 +1144,7 @@
         <v>83035</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -1155,7 +1155,7 @@
         <v>83036</v>
       </c>
       <c r="C58">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -1166,7 +1166,7 @@
         <v>83016</v>
       </c>
       <c r="C59">
-        <v>54</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -1177,7 +1177,7 @@
         <v>83019</v>
       </c>
       <c r="C60">
-        <v>54</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
@@ -1188,7 +1188,7 @@
         <v>83004</v>
       </c>
       <c r="C61">
-        <v>54</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -1199,7 +1199,7 @@
         <v>83007</v>
       </c>
       <c r="C62">
-        <v>54</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -1210,7 +1210,7 @@
         <v>83017</v>
       </c>
       <c r="C63">
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -1221,7 +1221,7 @@
         <v>83020</v>
       </c>
       <c r="C64">
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -1232,7 +1232,7 @@
         <v>83005</v>
       </c>
       <c r="C65">
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -1243,7 +1243,7 @@
         <v>83008</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
@@ -1254,7 +1254,7 @@
         <v>83018</v>
       </c>
       <c r="C67">
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -1265,7 +1265,7 @@
         <v>83021</v>
       </c>
       <c r="C68">
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -1276,7 +1276,7 @@
         <v>83009</v>
       </c>
       <c r="C69">
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -1287,7 +1287,7 @@
         <v>83006</v>
       </c>
       <c r="C70">
-        <v>53</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -1298,7 +1298,7 @@
         <v>83028</v>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -1309,7 +1309,7 @@
         <v>83029</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -1320,7 +1320,7 @@
         <v>83030</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -1331,7 +1331,7 @@
         <v>83031</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -1342,7 +1342,7 @@
         <v>83032</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -1353,7 +1353,7 @@
         <v>83033</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -1364,7 +1364,7 @@
         <v>83010</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -1375,7 +1375,7 @@
         <v>83012</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -1386,7 +1386,7 @@
         <v>83011</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -1397,7 +1397,7 @@
         <v>83013</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -1408,7 +1408,7 @@
         <v>83015</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -1419,7 +1419,7 @@
         <v>83014</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -1430,7 +1430,7 @@
         <v>83001</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -1441,7 +1441,7 @@
         <v>83003</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -1452,7 +1452,7 @@
         <v>83002</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -1463,7 +1463,7 @@
         <v>83034</v>
       </c>
       <c r="C86">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
@@ -1474,7 +1474,7 @@
         <v>83035</v>
       </c>
       <c r="C87">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -1485,7 +1485,7 @@
         <v>83036</v>
       </c>
       <c r="C88">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
@@ -1496,7 +1496,7 @@
         <v>83016</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -1507,7 +1507,7 @@
         <v>83019</v>
       </c>
       <c r="C90">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -1518,7 +1518,7 @@
         <v>83004</v>
       </c>
       <c r="C91">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -1529,7 +1529,7 @@
         <v>83007</v>
       </c>
       <c r="C92">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -1540,7 +1540,7 @@
         <v>83017</v>
       </c>
       <c r="C93">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -1551,7 +1551,7 @@
         <v>83020</v>
       </c>
       <c r="C94">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -1562,7 +1562,7 @@
         <v>83005</v>
       </c>
       <c r="C95">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -1573,7 +1573,7 @@
         <v>83008</v>
       </c>
       <c r="C96">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -1584,7 +1584,7 @@
         <v>83018</v>
       </c>
       <c r="C97">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -1595,7 +1595,7 @@
         <v>83021</v>
       </c>
       <c r="C98">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
@@ -1606,7 +1606,7 @@
         <v>83009</v>
       </c>
       <c r="C99">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -1617,7 +1617,7 @@
         <v>83006</v>
       </c>
       <c r="C100">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
@@ -1628,7 +1628,7 @@
         <v>83028</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
@@ -1639,7 +1639,7 @@
         <v>83029</v>
       </c>
       <c r="C102">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
@@ -1650,7 +1650,7 @@
         <v>83030</v>
       </c>
       <c r="C103">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
@@ -1661,7 +1661,7 @@
         <v>83031</v>
       </c>
       <c r="C104">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
@@ -1672,7 +1672,7 @@
         <v>83032</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
@@ -1683,7 +1683,7 @@
         <v>83033</v>
       </c>
       <c r="C106">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
@@ -1694,7 +1694,7 @@
         <v>83010</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
@@ -1705,7 +1705,7 @@
         <v>83012</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
@@ -1716,7 +1716,7 @@
         <v>83011</v>
       </c>
       <c r="C109">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
@@ -1727,7 +1727,7 @@
         <v>83013</v>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
@@ -1738,7 +1738,7 @@
         <v>83015</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
@@ -1749,7 +1749,7 @@
         <v>83014</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
@@ -1760,7 +1760,7 @@
         <v>83001</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
@@ -1771,7 +1771,7 @@
         <v>83003</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
@@ -1782,7 +1782,7 @@
         <v>83002</v>
       </c>
       <c r="C115">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
@@ -1793,7 +1793,7 @@
         <v>83034</v>
       </c>
       <c r="C116">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
@@ -1804,7 +1804,7 @@
         <v>83035</v>
       </c>
       <c r="C117">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
@@ -1815,7 +1815,7 @@
         <v>83036</v>
       </c>
       <c r="C118">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
@@ -1826,7 +1826,7 @@
         <v>83016</v>
       </c>
       <c r="C119">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
@@ -1837,7 +1837,7 @@
         <v>83019</v>
       </c>
       <c r="C120">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
@@ -1848,7 +1848,7 @@
         <v>83004</v>
       </c>
       <c r="C121">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
@@ -1859,7 +1859,7 @@
         <v>83007</v>
       </c>
       <c r="C122">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
@@ -1870,7 +1870,7 @@
         <v>83017</v>
       </c>
       <c r="C123">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
@@ -1881,7 +1881,7 @@
         <v>83020</v>
       </c>
       <c r="C124">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
@@ -1892,7 +1892,7 @@
         <v>83005</v>
       </c>
       <c r="C125">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
@@ -1903,7 +1903,7 @@
         <v>83008</v>
       </c>
       <c r="C126">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
@@ -1914,7 +1914,7 @@
         <v>83018</v>
       </c>
       <c r="C127">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
@@ -1925,7 +1925,7 @@
         <v>83021</v>
       </c>
       <c r="C128">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
@@ -1936,7 +1936,7 @@
         <v>83009</v>
       </c>
       <c r="C129">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
@@ -1947,7 +1947,7 @@
         <v>83006</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
@@ -1958,7 +1958,7 @@
         <v>83028</v>
       </c>
       <c r="C131">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
@@ -1969,7 +1969,7 @@
         <v>83029</v>
       </c>
       <c r="C132">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
@@ -1980,7 +1980,7 @@
         <v>83030</v>
       </c>
       <c r="C133">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
@@ -1991,7 +1991,7 @@
         <v>83031</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
@@ -2002,7 +2002,7 @@
         <v>83032</v>
       </c>
       <c r="C135">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
@@ -2013,7 +2013,7 @@
         <v>83033</v>
       </c>
       <c r="C136">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
@@ -2024,7 +2024,7 @@
         <v>83010</v>
       </c>
       <c r="C137">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
@@ -2035,7 +2035,7 @@
         <v>83012</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
@@ -2046,7 +2046,7 @@
         <v>83011</v>
       </c>
       <c r="C139">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
@@ -2057,7 +2057,7 @@
         <v>83013</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
@@ -2068,7 +2068,7 @@
         <v>83015</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
@@ -2079,7 +2079,7 @@
         <v>83014</v>
       </c>
       <c r="C142">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
@@ -2090,7 +2090,7 @@
         <v>83001</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
@@ -2101,7 +2101,7 @@
         <v>83003</v>
       </c>
       <c r="C144">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
@@ -2112,7 +2112,7 @@
         <v>83002</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
@@ -2123,7 +2123,7 @@
         <v>83034</v>
       </c>
       <c r="C146">
-        <v>70</v>
+        <v>700</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
@@ -2134,7 +2134,7 @@
         <v>83035</v>
       </c>
       <c r="C147">
-        <v>70</v>
+        <v>700</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
@@ -2145,7 +2145,7 @@
         <v>83036</v>
       </c>
       <c r="C148">
-        <v>70</v>
+        <v>700</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
@@ -2156,7 +2156,7 @@
         <v>83016</v>
       </c>
       <c r="C149">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
@@ -2167,7 +2167,7 @@
         <v>83019</v>
       </c>
       <c r="C150">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
@@ -2178,7 +2178,7 @@
         <v>83004</v>
       </c>
       <c r="C151">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
@@ -2189,7 +2189,7 @@
         <v>83007</v>
       </c>
       <c r="C152">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
@@ -2200,7 +2200,7 @@
         <v>83017</v>
       </c>
       <c r="C153">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
@@ -2211,7 +2211,7 @@
         <v>83020</v>
       </c>
       <c r="C154">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
@@ -2222,7 +2222,7 @@
         <v>83005</v>
       </c>
       <c r="C155">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
@@ -2233,7 +2233,7 @@
         <v>83008</v>
       </c>
       <c r="C156">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
@@ -2244,7 +2244,7 @@
         <v>83018</v>
       </c>
       <c r="C157">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
@@ -2255,7 +2255,7 @@
         <v>83021</v>
       </c>
       <c r="C158">
-        <v>41</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
@@ -2266,7 +2266,7 @@
         <v>83009</v>
       </c>
       <c r="C159">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
@@ -2277,7 +2277,7 @@
         <v>83006</v>
       </c>
       <c r="C160">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
@@ -2288,7 +2288,7 @@
         <v>83028</v>
       </c>
       <c r="C161">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
@@ -2299,7 +2299,7 @@
         <v>83029</v>
       </c>
       <c r="C162">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
@@ -2310,7 +2310,7 @@
         <v>83030</v>
       </c>
       <c r="C163">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
@@ -2321,7 +2321,7 @@
         <v>83031</v>
       </c>
       <c r="C164">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
@@ -2332,7 +2332,7 @@
         <v>83032</v>
       </c>
       <c r="C165">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
@@ -2343,7 +2343,7 @@
         <v>83033</v>
       </c>
       <c r="C166">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
@@ -2354,7 +2354,7 @@
         <v>83010</v>
       </c>
       <c r="C167">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
@@ -2365,7 +2365,7 @@
         <v>83012</v>
       </c>
       <c r="C168">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
@@ -2376,7 +2376,7 @@
         <v>83011</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
@@ -2387,7 +2387,7 @@
         <v>83013</v>
       </c>
       <c r="C170">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.4">
@@ -2398,7 +2398,7 @@
         <v>83015</v>
       </c>
       <c r="C171">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.4">
@@ -2409,7 +2409,7 @@
         <v>83014</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.4">
@@ -2420,7 +2420,7 @@
         <v>83001</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.4">
@@ -2431,7 +2431,7 @@
         <v>83003</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.4">
@@ -2442,7 +2442,7 @@
         <v>83002</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.4">
@@ -2453,7 +2453,7 @@
         <v>83034</v>
       </c>
       <c r="C176">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.4">
@@ -2464,7 +2464,7 @@
         <v>83035</v>
       </c>
       <c r="C177">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.4">
@@ -2475,7 +2475,7 @@
         <v>83036</v>
       </c>
       <c r="C178">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.4">
@@ -2486,7 +2486,7 @@
         <v>83016</v>
       </c>
       <c r="C179">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.4">
@@ -2497,7 +2497,7 @@
         <v>83019</v>
       </c>
       <c r="C180">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.4">
@@ -2508,7 +2508,7 @@
         <v>83004</v>
       </c>
       <c r="C181">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.4">
@@ -2519,7 +2519,7 @@
         <v>83007</v>
       </c>
       <c r="C182">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.4">
@@ -2530,7 +2530,7 @@
         <v>83017</v>
       </c>
       <c r="C183">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.4">
@@ -2541,7 +2541,7 @@
         <v>83020</v>
       </c>
       <c r="C184">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.4">
@@ -2552,7 +2552,7 @@
         <v>83005</v>
       </c>
       <c r="C185">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.4">
@@ -2563,7 +2563,7 @@
         <v>83008</v>
       </c>
       <c r="C186">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.4">
@@ -2574,7 +2574,7 @@
         <v>83018</v>
       </c>
       <c r="C187">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.4">
@@ -2585,7 +2585,7 @@
         <v>83021</v>
       </c>
       <c r="C188">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.4">
@@ -2596,7 +2596,7 @@
         <v>83009</v>
       </c>
       <c r="C189">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.4">
@@ -2607,7 +2607,7 @@
         <v>83006</v>
       </c>
       <c r="C190">
-        <v>35</v>
+        <v>350</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.4">
@@ -2618,7 +2618,7 @@
         <v>83028</v>
       </c>
       <c r="C191">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.4">
@@ -2629,7 +2629,7 @@
         <v>83029</v>
       </c>
       <c r="C192">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.4">
@@ -2640,7 +2640,7 @@
         <v>83030</v>
       </c>
       <c r="C193">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.4">
@@ -2651,7 +2651,7 @@
         <v>83031</v>
       </c>
       <c r="C194">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.4">
@@ -2662,7 +2662,7 @@
         <v>83032</v>
       </c>
       <c r="C195">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.4">
@@ -2673,7 +2673,7 @@
         <v>83033</v>
       </c>
       <c r="C196">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.4">
@@ -2684,7 +2684,7 @@
         <v>83010</v>
       </c>
       <c r="C197">
-        <v>23</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.4">
@@ -2695,7 +2695,7 @@
         <v>83012</v>
       </c>
       <c r="C198">
-        <v>23</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.4">
@@ -2706,7 +2706,7 @@
         <v>83011</v>
       </c>
       <c r="C199">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
@@ -2717,7 +2717,7 @@
         <v>83013</v>
       </c>
       <c r="C200">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
@@ -2728,7 +2728,7 @@
         <v>83015</v>
       </c>
       <c r="C201">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
@@ -2739,7 +2739,7 @@
         <v>83014</v>
       </c>
       <c r="C202">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
@@ -2750,7 +2750,7 @@
         <v>83001</v>
       </c>
       <c r="C203">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
@@ -2761,7 +2761,7 @@
         <v>83003</v>
       </c>
       <c r="C204">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
@@ -2772,7 +2772,7 @@
         <v>83002</v>
       </c>
       <c r="C205">
-        <v>22</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
@@ -2783,7 +2783,7 @@
         <v>83034</v>
       </c>
       <c r="C206">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
@@ -2794,7 +2794,7 @@
         <v>83035</v>
       </c>
       <c r="C207">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
@@ -2805,7 +2805,7 @@
         <v>83036</v>
       </c>
       <c r="C208">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
@@ -2816,7 +2816,7 @@
         <v>83016</v>
       </c>
       <c r="C209">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
@@ -2827,7 +2827,7 @@
         <v>83019</v>
       </c>
       <c r="C210">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
@@ -2838,7 +2838,7 @@
         <v>83004</v>
       </c>
       <c r="C211">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
@@ -2849,7 +2849,7 @@
         <v>83007</v>
       </c>
       <c r="C212">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
@@ -2860,7 +2860,7 @@
         <v>83017</v>
       </c>
       <c r="C213">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.4">
@@ -2871,7 +2871,7 @@
         <v>83020</v>
       </c>
       <c r="C214">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.4">
@@ -2882,7 +2882,7 @@
         <v>83005</v>
       </c>
       <c r="C215">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.4">
@@ -2893,7 +2893,7 @@
         <v>83008</v>
       </c>
       <c r="C216">
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.4">
@@ -2904,7 +2904,7 @@
         <v>83018</v>
       </c>
       <c r="C217">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
@@ -2915,7 +2915,7 @@
         <v>83021</v>
       </c>
       <c r="C218">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
@@ -2926,7 +2926,7 @@
         <v>83009</v>
       </c>
       <c r="C219">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
@@ -2937,7 +2937,7 @@
         <v>83006</v>
       </c>
       <c r="C220">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
@@ -2948,7 +2948,7 @@
         <v>83028</v>
       </c>
       <c r="C221">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
@@ -2959,7 +2959,7 @@
         <v>83029</v>
       </c>
       <c r="C222">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.4">
@@ -2970,7 +2970,7 @@
         <v>83030</v>
       </c>
       <c r="C223">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.4">
@@ -2981,7 +2981,7 @@
         <v>83031</v>
       </c>
       <c r="C224">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.4">
@@ -2992,7 +2992,7 @@
         <v>83032</v>
       </c>
       <c r="C225">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.4">
@@ -3003,7 +3003,7 @@
         <v>83033</v>
       </c>
       <c r="C226">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.4">
@@ -3014,7 +3014,7 @@
         <v>83010</v>
       </c>
       <c r="C227">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.4">
@@ -3025,7 +3025,7 @@
         <v>83012</v>
       </c>
       <c r="C228">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.4">
@@ -3036,7 +3036,7 @@
         <v>83011</v>
       </c>
       <c r="C229">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.4">
@@ -3047,7 +3047,7 @@
         <v>83013</v>
       </c>
       <c r="C230">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.4">
@@ -3058,7 +3058,7 @@
         <v>83015</v>
       </c>
       <c r="C231">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.4">
@@ -3069,7 +3069,7 @@
         <v>83014</v>
       </c>
       <c r="C232">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.4">
@@ -3080,7 +3080,7 @@
         <v>83001</v>
       </c>
       <c r="C233">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.4">
@@ -3091,7 +3091,7 @@
         <v>83003</v>
       </c>
       <c r="C234">
-        <v>45</v>
+        <v>450</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.4">
@@ -3102,7 +3102,7 @@
         <v>83002</v>
       </c>
       <c r="C235">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.4">
@@ -3113,7 +3113,7 @@
         <v>83028</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.4">
@@ -3124,7 +3124,7 @@
         <v>83029</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.4">
@@ -3135,7 +3135,7 @@
         <v>83030</v>
       </c>
       <c r="C238">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.4">
@@ -3146,7 +3146,7 @@
         <v>83031</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.4">
@@ -3157,7 +3157,7 @@
         <v>83032</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.4">
@@ -3168,7 +3168,7 @@
         <v>83033</v>
       </c>
       <c r="C241">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.4">
@@ -3179,7 +3179,7 @@
         <v>83010</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.4">
@@ -3190,7 +3190,7 @@
         <v>83012</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.4">
@@ -3201,7 +3201,7 @@
         <v>83011</v>
       </c>
       <c r="C244">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.4">
@@ -3212,7 +3212,7 @@
         <v>83013</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.4">
@@ -3223,7 +3223,7 @@
         <v>83015</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.4">
@@ -3234,7 +3234,7 @@
         <v>83014</v>
       </c>
       <c r="C247">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.4">
@@ -3245,7 +3245,7 @@
         <v>83001</v>
       </c>
       <c r="C248">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.4">
@@ -3256,7 +3256,7 @@
         <v>83003</v>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.4">
@@ -3267,7 +3267,7 @@
         <v>83002</v>
       </c>
       <c r="C250">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.4">
@@ -3278,7 +3278,7 @@
         <v>83034</v>
       </c>
       <c r="C251">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.4">
@@ -3289,7 +3289,7 @@
         <v>83035</v>
       </c>
       <c r="C252">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.4">
@@ -3300,7 +3300,7 @@
         <v>83036</v>
       </c>
       <c r="C253">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.4">
@@ -3311,7 +3311,7 @@
         <v>83016</v>
       </c>
       <c r="C254">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.4">
@@ -3322,7 +3322,7 @@
         <v>83019</v>
       </c>
       <c r="C255">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.4">
@@ -3333,7 +3333,7 @@
         <v>83004</v>
       </c>
       <c r="C256">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.4">
@@ -3344,7 +3344,7 @@
         <v>83007</v>
       </c>
       <c r="C257">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.4">
@@ -3355,7 +3355,7 @@
         <v>83017</v>
       </c>
       <c r="C258">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.4">
@@ -3366,7 +3366,7 @@
         <v>83020</v>
       </c>
       <c r="C259">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.4">
@@ -3377,7 +3377,7 @@
         <v>83005</v>
       </c>
       <c r="C260">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.4">
@@ -3388,7 +3388,7 @@
         <v>83008</v>
       </c>
       <c r="C261">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.4">
@@ -3399,7 +3399,7 @@
         <v>83018</v>
       </c>
       <c r="C262">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.4">
@@ -3410,7 +3410,7 @@
         <v>83021</v>
       </c>
       <c r="C263">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.4">
@@ -3421,7 +3421,7 @@
         <v>83009</v>
       </c>
       <c r="C264">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.4">
@@ -3432,7 +3432,7 @@
         <v>83006</v>
       </c>
       <c r="C265">
-        <v>44</v>
+        <v>440</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.4">
@@ -3443,7 +3443,7 @@
         <v>83028</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.4">
@@ -3454,7 +3454,7 @@
         <v>83029</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.4">
@@ -3465,7 +3465,7 @@
         <v>83030</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.4">
@@ -3476,7 +3476,7 @@
         <v>83031</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.4">
@@ -3487,7 +3487,7 @@
         <v>83032</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.4">
@@ -3498,7 +3498,7 @@
         <v>83033</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.4">
@@ -3509,7 +3509,7 @@
         <v>83010</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.4">
@@ -3520,7 +3520,7 @@
         <v>83012</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.4">
@@ -3531,7 +3531,7 @@
         <v>83011</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.4">
@@ -3542,7 +3542,7 @@
         <v>83013</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.4">
@@ -3553,7 +3553,7 @@
         <v>83015</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.4">
@@ -3564,7 +3564,7 @@
         <v>83014</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.4">
@@ -3575,7 +3575,7 @@
         <v>83001</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.4">
@@ -3586,7 +3586,7 @@
         <v>83003</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.4">
@@ -3597,7 +3597,7 @@
         <v>83002</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.4">
@@ -3608,7 +3608,7 @@
         <v>83034</v>
       </c>
       <c r="C281">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.4">
@@ -3619,7 +3619,7 @@
         <v>83035</v>
       </c>
       <c r="C282">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.4">
@@ -3630,7 +3630,7 @@
         <v>83036</v>
       </c>
       <c r="C283">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.4">
@@ -3641,7 +3641,7 @@
         <v>83016</v>
       </c>
       <c r="C284">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.4">
@@ -3652,7 +3652,7 @@
         <v>83019</v>
       </c>
       <c r="C285">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.4">
@@ -3663,7 +3663,7 @@
         <v>83004</v>
       </c>
       <c r="C286">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.4">
@@ -3674,7 +3674,7 @@
         <v>83007</v>
       </c>
       <c r="C287">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.4">
@@ -3685,7 +3685,7 @@
         <v>83017</v>
       </c>
       <c r="C288">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.4">
@@ -3696,7 +3696,7 @@
         <v>83020</v>
       </c>
       <c r="C289">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.4">
@@ -3707,7 +3707,7 @@
         <v>83005</v>
       </c>
       <c r="C290">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.4">
@@ -3718,7 +3718,7 @@
         <v>83008</v>
       </c>
       <c r="C291">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.4">
@@ -3729,7 +3729,7 @@
         <v>83018</v>
       </c>
       <c r="C292">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.4">
@@ -3740,7 +3740,7 @@
         <v>83021</v>
       </c>
       <c r="C293">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.4">
@@ -3751,7 +3751,7 @@
         <v>83009</v>
       </c>
       <c r="C294">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.4">
@@ -3762,7 +3762,7 @@
         <v>83006</v>
       </c>
       <c r="C295">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.4">
@@ -3773,7 +3773,7 @@
         <v>83022</v>
       </c>
       <c r="C296">
-        <v>95</v>
+        <v>950</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.4">
@@ -3784,7 +3784,7 @@
         <v>83023</v>
       </c>
       <c r="C297">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.4">
@@ -3795,7 +3795,7 @@
         <v>83025</v>
       </c>
       <c r="C298">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.4">
@@ -3806,7 +3806,7 @@
         <v>83024</v>
       </c>
       <c r="C299">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.4">
@@ -3817,7 +3817,7 @@
         <v>83026</v>
       </c>
       <c r="C300">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.4">
@@ -3828,7 +3828,7 @@
         <v>83027</v>
       </c>
       <c r="C301">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
